--- a/SOFTWARE/Z80 CPU Tester 1.1/Results Z80 CPU Tester.xlsx
+++ b/SOFTWARE/Z80 CPU Tester 1.1/Results Z80 CPU Tester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eigene Dateien\PROG Z80\Z80 CPU Tester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFFF2E4-1960-4F56-86D3-8220133CCE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AAC806-4342-4A1F-816F-D85101A62A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="2130" windowWidth="30120" windowHeight="18450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="233">
   <si>
     <t>ZILOG</t>
   </si>
@@ -1651,46 +1651,16 @@
     <xf numFmtId="49" fontId="1" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1704,6 +1674,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2022,7 +2022,7 @@
   <dimension ref="A1:AQ341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168"/>
+      <selection activeCell="AF6" sqref="AF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2052,49 +2052,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="1" customFormat="1" ht="19.5" thickBot="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="119" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
-      <c r="AH1" s="108"/>
-      <c r="AI1" s="108"/>
-      <c r="AJ1" s="108"/>
-      <c r="AK1" s="108"/>
-      <c r="AL1" s="108"/>
-      <c r="AM1" s="108"/>
-      <c r="AN1" s="108"/>
-      <c r="AO1" s="109"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
+      <c r="U1" s="120"/>
+      <c r="V1" s="120"/>
+      <c r="W1" s="120"/>
+      <c r="X1" s="120"/>
+      <c r="Y1" s="120"/>
+      <c r="Z1" s="120"/>
+      <c r="AA1" s="120"/>
+      <c r="AB1" s="120"/>
+      <c r="AC1" s="120"/>
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="120"/>
+      <c r="AG1" s="120"/>
+      <c r="AH1" s="120"/>
+      <c r="AI1" s="120"/>
+      <c r="AJ1" s="120"/>
+      <c r="AK1" s="120"/>
+      <c r="AL1" s="120"/>
+      <c r="AM1" s="120"/>
+      <c r="AN1" s="120"/>
+      <c r="AO1" s="121"/>
       <c r="AP1" s="1" t="s">
         <v>130</v>
       </c>
@@ -2137,16 +2137,16 @@
         <v>108</v>
       </c>
       <c r="S2" s="55"/>
-      <c r="T2" s="103" t="s">
+      <c r="T2" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
-      <c r="Z2" s="104"/>
-      <c r="AA2" s="104"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="114"/>
+      <c r="AA2" s="114"/>
       <c r="AB2" s="61"/>
       <c r="AC2" s="99" t="s">
         <v>127</v>
@@ -2155,16 +2155,16 @@
         <v>128</v>
       </c>
       <c r="AE2" s="64"/>
-      <c r="AF2" s="105" t="s">
+      <c r="AF2" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="AG2" s="106"/>
-      <c r="AH2" s="106"/>
-      <c r="AI2" s="106"/>
-      <c r="AJ2" s="106"/>
-      <c r="AK2" s="106"/>
-      <c r="AL2" s="106"/>
-      <c r="AM2" s="106"/>
+      <c r="AG2" s="116"/>
+      <c r="AH2" s="116"/>
+      <c r="AI2" s="116"/>
+      <c r="AJ2" s="116"/>
+      <c r="AK2" s="116"/>
+      <c r="AL2" s="116"/>
+      <c r="AM2" s="116"/>
       <c r="AN2" s="65"/>
       <c r="AO2" s="101" t="s">
         <v>129</v>
@@ -2398,7 +2398,7 @@
       <c r="AN4" s="95" t="s">
         <v>115</v>
       </c>
-      <c r="AO4" s="116" t="str">
+      <c r="AO4" s="106" t="str">
         <f>VLOOKUP($AQ4,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>NMOS Z80 (Zilog Z80, Zilog Z08400 or similar NMOS CPU, Mosstek MK3880N, SGS/ST Z8400, Sharp LH0080A, KR1858VM1)</v>
       </c>
@@ -2520,7 +2520,7 @@
       <c r="AN5" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="AO5" s="115" t="str">
+      <c r="AO5" s="105" t="str">
         <f>VLOOKUP($AQ5,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>NMOS Z80 (Zilog Z80, Zilog Z08400 or similar NMOS CPU, Mosstek MK3880N, SGS/ST Z8400, Sharp LH0080A, KR1858VM1)</v>
       </c>
@@ -2644,7 +2644,7 @@
       <c r="AN6" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="AO6" s="115" t="str">
+      <c r="AO6" s="105" t="str">
         <f>VLOOKUP($AQ6,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>SHARP LH5080A</v>
       </c>
@@ -2768,7 +2768,7 @@
       <c r="AN7" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="AO7" s="115" t="str">
+      <c r="AO7" s="105" t="str">
         <f>VLOOKUP($AQ7,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>SHARP LH5080A</v>
       </c>
@@ -2888,7 +2888,7 @@
       <c r="AN8" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="AO8" s="115" t="str">
+      <c r="AO8" s="105" t="str">
         <f>VLOOKUP($AQ8,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>SHARP LH5080A</v>
       </c>
@@ -3014,7 +3014,7 @@
       <c r="AN9" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="AO9" s="115" t="str">
+      <c r="AO9" s="105" t="str">
         <f>VLOOKUP($AQ9,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>SHARP LH5080A</v>
       </c>
@@ -3138,7 +3138,7 @@
       <c r="AN10" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="AO10" s="115" t="str">
+      <c r="AO10" s="105" t="str">
         <f>VLOOKUP($AQ10,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>NMOS Z80 (Zilog Z80, Zilog Z08400 or similar NMOS CPU, Mosstek MK3880N, SGS/ST Z8400, Sharp LH0080A, KR1858VM1)</v>
       </c>
@@ -3262,7 +3262,7 @@
       <c r="AN11" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="AO11" s="115" t="str">
+      <c r="AO11" s="105" t="str">
         <f>VLOOKUP($AQ11,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>NMOS Z80 (Zilog Z80, Zilog Z08400 or similar NMOS CPU, Mosstek MK3880N, SGS/ST Z8400, Sharp LH0080A, KR1858VM1)</v>
       </c>
@@ -3388,7 +3388,7 @@
       <c r="AN12" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="AO12" s="115" t="str">
+      <c r="AO12" s="105" t="str">
         <f>VLOOKUP($AQ12,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>NMOS Z80 (Zilog Z80, Zilog Z08400 or similar NMOS CPU, Mosstek MK3880N, SGS/ST Z8400, Sharp LH0080A, KR1858VM1)</v>
       </c>
@@ -3447,16 +3447,16 @@
         <v>108</v>
       </c>
       <c r="S14" s="10"/>
-      <c r="T14" s="110" t="s">
+      <c r="T14" s="117" t="s">
         <v>109</v>
       </c>
-      <c r="U14" s="111"/>
-      <c r="V14" s="111"/>
-      <c r="W14" s="111"/>
-      <c r="X14" s="111"/>
-      <c r="Y14" s="111"/>
-      <c r="Z14" s="111"/>
-      <c r="AA14" s="111"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="118"/>
+      <c r="W14" s="118"/>
+      <c r="X14" s="118"/>
+      <c r="Y14" s="118"/>
+      <c r="Z14" s="118"/>
+      <c r="AA14" s="118"/>
       <c r="AB14" s="57"/>
       <c r="AC14" s="99" t="s">
         <v>127</v>
@@ -3465,16 +3465,16 @@
         <v>128</v>
       </c>
       <c r="AE14" s="64"/>
-      <c r="AF14" s="105" t="s">
+      <c r="AF14" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="AG14" s="106"/>
-      <c r="AH14" s="106"/>
-      <c r="AI14" s="106"/>
-      <c r="AJ14" s="106"/>
-      <c r="AK14" s="106"/>
-      <c r="AL14" s="106"/>
-      <c r="AM14" s="106"/>
+      <c r="AG14" s="116"/>
+      <c r="AH14" s="116"/>
+      <c r="AI14" s="116"/>
+      <c r="AJ14" s="116"/>
+      <c r="AK14" s="116"/>
+      <c r="AL14" s="116"/>
+      <c r="AM14" s="116"/>
       <c r="AN14" s="65"/>
       <c r="AO14" s="101" t="s">
         <v>129</v>
@@ -3710,7 +3710,7 @@
       <c r="AN16" s="95" t="s">
         <v>115</v>
       </c>
-      <c r="AO16" s="116" t="str">
+      <c r="AO16" s="106" t="str">
         <f>VLOOKUP($AQ16,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>NMOS Z80 (Zilog Z80, Zilog Z08400 or similar NMOS CPU, Mosstek MK3880N, SGS/ST Z8400, Sharp LH0080A, KR1858VM1)</v>
       </c>
@@ -3748,7 +3748,7 @@
       <c r="H17" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="121" t="s">
+      <c r="I17" s="111" t="s">
         <v>5</v>
       </c>
       <c r="J17" s="28"/>
@@ -3834,7 +3834,7 @@
       <c r="AN17" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="AO17" s="115" t="str">
+      <c r="AO17" s="105" t="str">
         <f>VLOOKUP($AQ17,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>NMOS Z80 (Zilog Z80, Zilog Z08400 or similar NMOS CPU, Mosstek MK3880N, SGS/ST Z8400, Sharp LH0080A, KR1858VM1)</v>
       </c>
@@ -3893,16 +3893,16 @@
         <v>108</v>
       </c>
       <c r="S19" s="10"/>
-      <c r="T19" s="110" t="s">
+      <c r="T19" s="117" t="s">
         <v>109</v>
       </c>
-      <c r="U19" s="111"/>
-      <c r="V19" s="111"/>
-      <c r="W19" s="111"/>
-      <c r="X19" s="111"/>
-      <c r="Y19" s="111"/>
-      <c r="Z19" s="111"/>
-      <c r="AA19" s="111"/>
+      <c r="U19" s="118"/>
+      <c r="V19" s="118"/>
+      <c r="W19" s="118"/>
+      <c r="X19" s="118"/>
+      <c r="Y19" s="118"/>
+      <c r="Z19" s="118"/>
+      <c r="AA19" s="118"/>
       <c r="AB19" s="57"/>
       <c r="AC19" s="99" t="s">
         <v>127</v>
@@ -3911,16 +3911,16 @@
         <v>128</v>
       </c>
       <c r="AE19" s="64"/>
-      <c r="AF19" s="105" t="s">
+      <c r="AF19" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="AG19" s="106"/>
-      <c r="AH19" s="106"/>
-      <c r="AI19" s="106"/>
-      <c r="AJ19" s="106"/>
-      <c r="AK19" s="106"/>
-      <c r="AL19" s="106"/>
-      <c r="AM19" s="106"/>
+      <c r="AG19" s="116"/>
+      <c r="AH19" s="116"/>
+      <c r="AI19" s="116"/>
+      <c r="AJ19" s="116"/>
+      <c r="AK19" s="116"/>
+      <c r="AL19" s="116"/>
+      <c r="AM19" s="116"/>
       <c r="AN19" s="65"/>
       <c r="AO19" s="101" t="s">
         <v>129</v>
@@ -4156,7 +4156,7 @@
       <c r="AN21" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="AO21" s="115" t="str">
+      <c r="AO21" s="105" t="str">
         <f>VLOOKUP($AQ21,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>Toshiba Z80 (Toshiba TMPZ84C00AP, ST Z84C00AB)</v>
       </c>
@@ -4280,7 +4280,7 @@
       <c r="AN22" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="AO22" s="115" t="str">
+      <c r="AO22" s="105" t="str">
         <f>VLOOKUP($AQ22,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>Toshiba Z80 (Toshiba TMPZ84C00AP, ST Z84C00AB)</v>
       </c>
@@ -4404,7 +4404,7 @@
       <c r="AN23" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="AO23" s="115" t="str">
+      <c r="AO23" s="105" t="str">
         <f>VLOOKUP($AQ23,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>CMOS Z80 (Zilog Z84C00)</v>
       </c>
@@ -4528,7 +4528,7 @@
       <c r="AN24" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="AO24" s="115" t="str">
+      <c r="AO24" s="105" t="str">
         <f>VLOOKUP($AQ24,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>Toshiba Z80 (Toshiba TMPZ84C00AP, ST Z84C00AB)</v>
       </c>
@@ -4652,7 +4652,7 @@
       <c r="AN25" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="AO25" s="115" t="str">
+      <c r="AO25" s="105" t="str">
         <f>VLOOKUP($AQ25,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>Toshiba Z80 (Toshiba TMPZ84C00AP, ST Z84C00AB)</v>
       </c>
@@ -4776,7 +4776,7 @@
       <c r="AN26" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="AO26" s="115" t="str">
+      <c r="AO26" s="105" t="str">
         <f>VLOOKUP($AQ26,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>Toshiba Z80 (Toshiba TMPZ84C00AP, ST Z84C00AB)</v>
       </c>
@@ -4900,7 +4900,7 @@
       <c r="AN27" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="AO27" s="115" t="str">
+      <c r="AO27" s="105" t="str">
         <f>VLOOKUP($AQ27,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>Toshiba Z80 (Toshiba TMPZ84C00AP, ST Z84C00AB)</v>
       </c>
@@ -5024,7 +5024,7 @@
       <c r="AN28" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="AO28" s="115" t="str">
+      <c r="AO28" s="105" t="str">
         <f>VLOOKUP($AQ28,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>Toshiba Z80 (Toshiba TMPZ84C00AP, ST Z84C00AB)</v>
       </c>
@@ -5148,7 +5148,7 @@
       <c r="AN29" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="AO29" s="115" t="str">
+      <c r="AO29" s="105" t="str">
         <f>VLOOKUP($AQ29,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>Toshiba Z80 (Toshiba TMPZ84C00AP, ST Z84C00AB)</v>
       </c>
@@ -5207,16 +5207,16 @@
         <v>108</v>
       </c>
       <c r="S31" s="55"/>
-      <c r="T31" s="103" t="s">
+      <c r="T31" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="U31" s="104"/>
-      <c r="V31" s="104"/>
-      <c r="W31" s="104"/>
-      <c r="X31" s="104"/>
-      <c r="Y31" s="104"/>
-      <c r="Z31" s="104"/>
-      <c r="AA31" s="104"/>
+      <c r="U31" s="114"/>
+      <c r="V31" s="114"/>
+      <c r="W31" s="114"/>
+      <c r="X31" s="114"/>
+      <c r="Y31" s="114"/>
+      <c r="Z31" s="114"/>
+      <c r="AA31" s="114"/>
       <c r="AB31" s="61"/>
       <c r="AC31" s="99" t="s">
         <v>127</v>
@@ -5225,16 +5225,16 @@
         <v>128</v>
       </c>
       <c r="AE31" s="64"/>
-      <c r="AF31" s="105" t="s">
+      <c r="AF31" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="AG31" s="106"/>
-      <c r="AH31" s="106"/>
-      <c r="AI31" s="106"/>
-      <c r="AJ31" s="106"/>
-      <c r="AK31" s="106"/>
-      <c r="AL31" s="106"/>
-      <c r="AM31" s="106"/>
+      <c r="AG31" s="116"/>
+      <c r="AH31" s="116"/>
+      <c r="AI31" s="116"/>
+      <c r="AJ31" s="116"/>
+      <c r="AK31" s="116"/>
+      <c r="AL31" s="116"/>
+      <c r="AM31" s="116"/>
       <c r="AN31" s="65"/>
       <c r="AO31" s="101" t="s">
         <v>129</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="AN33" s="95"/>
-      <c r="AO33" s="116" t="str">
+      <c r="AO33" s="106" t="str">
         <f>VLOOKUP($AQ33,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="AN34" s="59"/>
-      <c r="AO34" s="115" t="str">
+      <c r="AO34" s="105" t="str">
         <f>VLOOKUP($AQ34,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="AN35" s="59"/>
-      <c r="AO35" s="115" t="str">
+      <c r="AO35" s="105" t="str">
         <f>VLOOKUP($AQ35,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="AN36" s="59"/>
-      <c r="AO36" s="115" t="str">
+      <c r="AO36" s="105" t="str">
         <f>VLOOKUP($AQ36,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>0</v>
       </c>
       <c r="AN37" s="59"/>
-      <c r="AO37" s="115" t="str">
+      <c r="AO37" s="105" t="str">
         <f>VLOOKUP($AQ37,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="AN38" s="59"/>
-      <c r="AO38" s="115" t="str">
+      <c r="AO38" s="105" t="str">
         <f>VLOOKUP($AQ38,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AN39" s="59"/>
-      <c r="AO39" s="115" t="str">
+      <c r="AO39" s="105" t="str">
         <f>VLOOKUP($AQ39,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -6282,7 +6282,7 @@
       <c r="AL40" s="26"/>
       <c r="AM40" s="42"/>
       <c r="AN40" s="59"/>
-      <c r="AO40" s="115" t="str">
+      <c r="AO40" s="105" t="str">
         <f>VLOOKUP($AQ40,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>NMOS Z80 (Zilog Z80, Zilog Z08400 or similar NMOS CPU, Mosstek MK3880N, SGS/ST Z8400, Sharp LH0080A, KR1858VM1)</v>
       </c>
@@ -6384,7 +6384,7 @@
       <c r="AL41" s="26"/>
       <c r="AM41" s="42"/>
       <c r="AN41" s="59"/>
-      <c r="AO41" s="115" t="str">
+      <c r="AO41" s="105" t="str">
         <f>VLOOKUP($AQ41,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>NEC D780C (NEC D780C, GoldStar Z8400, possibly KR1858VM1)</v>
       </c>
@@ -6443,16 +6443,16 @@
         <v>108</v>
       </c>
       <c r="S43" s="55"/>
-      <c r="T43" s="103" t="s">
+      <c r="T43" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="U43" s="104"/>
-      <c r="V43" s="104"/>
-      <c r="W43" s="104"/>
-      <c r="X43" s="104"/>
-      <c r="Y43" s="104"/>
-      <c r="Z43" s="104"/>
-      <c r="AA43" s="104"/>
+      <c r="U43" s="114"/>
+      <c r="V43" s="114"/>
+      <c r="W43" s="114"/>
+      <c r="X43" s="114"/>
+      <c r="Y43" s="114"/>
+      <c r="Z43" s="114"/>
+      <c r="AA43" s="114"/>
       <c r="AB43" s="61"/>
       <c r="AC43" s="99" t="s">
         <v>127</v>
@@ -6461,16 +6461,16 @@
         <v>128</v>
       </c>
       <c r="AE43" s="64"/>
-      <c r="AF43" s="105" t="s">
+      <c r="AF43" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="AG43" s="106"/>
-      <c r="AH43" s="106"/>
-      <c r="AI43" s="106"/>
-      <c r="AJ43" s="106"/>
-      <c r="AK43" s="106"/>
-      <c r="AL43" s="106"/>
-      <c r="AM43" s="106"/>
+      <c r="AG43" s="116"/>
+      <c r="AH43" s="116"/>
+      <c r="AI43" s="116"/>
+      <c r="AJ43" s="116"/>
+      <c r="AK43" s="116"/>
+      <c r="AL43" s="116"/>
+      <c r="AM43" s="116"/>
       <c r="AN43" s="65"/>
       <c r="AO43" s="101" t="s">
         <v>129</v>
@@ -6702,7 +6702,7 @@
         <v>0</v>
       </c>
       <c r="AN45" s="95"/>
-      <c r="AO45" s="116" t="str">
+      <c r="AO45" s="106" t="str">
         <f>VLOOKUP($AQ45,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="AN46" s="59"/>
-      <c r="AO46" s="115" t="str">
+      <c r="AO46" s="105" t="str">
         <f>VLOOKUP($AQ46,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="AN47" s="59"/>
-      <c r="AO47" s="115" t="str">
+      <c r="AO47" s="105" t="str">
         <f>VLOOKUP($AQ47,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>0</v>
       </c>
       <c r="AN48" s="59"/>
-      <c r="AO48" s="115" t="str">
+      <c r="AO48" s="105" t="str">
         <f>VLOOKUP($AQ48,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -7082,7 +7082,7 @@
       <c r="B49" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="117" t="s">
+      <c r="C49" s="107" t="s">
         <v>72</v>
       </c>
       <c r="D49" s="89" t="s">
@@ -7182,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="AN49" s="59"/>
-      <c r="AO49" s="115" t="str">
+      <c r="AO49" s="105" t="str">
         <f>VLOOKUP($AQ49,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>0</v>
       </c>
       <c r="AN50" s="59"/>
-      <c r="AO50" s="115" t="str">
+      <c r="AO50" s="105" t="str">
         <f>VLOOKUP($AQ50,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="AN51" s="59"/>
-      <c r="AO51" s="115" t="str">
+      <c r="AO51" s="105" t="str">
         <f>VLOOKUP($AQ51,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>0</v>
       </c>
       <c r="AN52" s="59"/>
-      <c r="AO52" s="115" t="str">
+      <c r="AO52" s="105" t="str">
         <f>VLOOKUP($AQ52,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>0</v>
       </c>
       <c r="AN53" s="59"/>
-      <c r="AO53" s="115" t="str">
+      <c r="AO53" s="105" t="str">
         <f>VLOOKUP($AQ53,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>0</v>
       </c>
       <c r="AN54" s="59"/>
-      <c r="AO54" s="115" t="str">
+      <c r="AO54" s="105" t="str">
         <f>VLOOKUP($AQ54,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -7802,7 +7802,7 @@
       <c r="B55" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="117" t="s">
+      <c r="C55" s="107" t="s">
         <v>52</v>
       </c>
       <c r="D55" s="89" t="s">
@@ -7902,7 +7902,7 @@
         <v>0</v>
       </c>
       <c r="AN55" s="59"/>
-      <c r="AO55" s="115" t="str">
+      <c r="AO55" s="105" t="str">
         <f>VLOOKUP($AQ55,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="AN56" s="59"/>
-      <c r="AO56" s="115" t="str">
+      <c r="AO56" s="105" t="str">
         <f>VLOOKUP($AQ56,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>0</v>
       </c>
       <c r="AN57" s="59"/>
-      <c r="AO57" s="115" t="str">
+      <c r="AO57" s="105" t="str">
         <f>VLOOKUP($AQ57,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -8262,7 +8262,7 @@
         <v>0</v>
       </c>
       <c r="AN58" s="59"/>
-      <c r="AO58" s="115" t="str">
+      <c r="AO58" s="105" t="str">
         <f>VLOOKUP($AQ58,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="AN59" s="59"/>
-      <c r="AO59" s="115" t="str">
+      <c r="AO59" s="105" t="str">
         <f>VLOOKUP($AQ59,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="AN60" s="59"/>
-      <c r="AO60" s="115" t="str">
+      <c r="AO60" s="105" t="str">
         <f>VLOOKUP($AQ60,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -8616,7 +8616,7 @@
         <v>0</v>
       </c>
       <c r="AN61" s="59"/>
-      <c r="AO61" s="115" t="str">
+      <c r="AO61" s="105" t="str">
         <f>VLOOKUP($AQ61,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -8740,7 +8740,7 @@
       <c r="AN62" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="AO62" s="115" t="str">
+      <c r="AO62" s="105" t="str">
         <f>VLOOKUP($AQ62,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>NMOS Z80 (Zilog Z80, Zilog Z08400 or similar NMOS CPU, Mosstek MK3880N, SGS/ST Z8400, Sharp LH0080A, KR1858VM1)</v>
       </c>
@@ -8799,16 +8799,16 @@
         <v>108</v>
       </c>
       <c r="S64" s="55"/>
-      <c r="T64" s="103" t="s">
+      <c r="T64" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="U64" s="104"/>
-      <c r="V64" s="104"/>
-      <c r="W64" s="104"/>
-      <c r="X64" s="104"/>
-      <c r="Y64" s="104"/>
-      <c r="Z64" s="104"/>
-      <c r="AA64" s="104"/>
+      <c r="U64" s="114"/>
+      <c r="V64" s="114"/>
+      <c r="W64" s="114"/>
+      <c r="X64" s="114"/>
+      <c r="Y64" s="114"/>
+      <c r="Z64" s="114"/>
+      <c r="AA64" s="114"/>
       <c r="AB64" s="61"/>
       <c r="AC64" s="99" t="s">
         <v>127</v>
@@ -8817,16 +8817,16 @@
         <v>128</v>
       </c>
       <c r="AE64" s="64"/>
-      <c r="AF64" s="105" t="s">
+      <c r="AF64" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="AG64" s="106"/>
-      <c r="AH64" s="106"/>
-      <c r="AI64" s="106"/>
-      <c r="AJ64" s="106"/>
-      <c r="AK64" s="106"/>
-      <c r="AL64" s="106"/>
-      <c r="AM64" s="106"/>
+      <c r="AG64" s="116"/>
+      <c r="AH64" s="116"/>
+      <c r="AI64" s="116"/>
+      <c r="AJ64" s="116"/>
+      <c r="AK64" s="116"/>
+      <c r="AL64" s="116"/>
+      <c r="AM64" s="116"/>
       <c r="AN64" s="65"/>
       <c r="AO64" s="101" t="s">
         <v>129</v>
@@ -9056,7 +9056,7 @@
         <v>0</v>
       </c>
       <c r="AN66" s="95"/>
-      <c r="AO66" s="116" t="str">
+      <c r="AO66" s="106" t="str">
         <f>VLOOKUP($AQ66,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -9174,7 +9174,7 @@
         <v>0</v>
       </c>
       <c r="AN67" s="59"/>
-      <c r="AO67" s="115" t="str">
+      <c r="AO67" s="105" t="str">
         <f>VLOOKUP($AQ67,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>0</v>
       </c>
       <c r="AN68" s="59"/>
-      <c r="AO68" s="115" t="str">
+      <c r="AO68" s="105" t="str">
         <f>VLOOKUP($AQ68,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -9312,7 +9312,7 @@
       <c r="B69" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C69" s="117" t="s">
+      <c r="C69" s="107" t="s">
         <v>22</v>
       </c>
       <c r="D69" s="89" t="s">
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="AN69" s="59"/>
-      <c r="AO69" s="115" t="str">
+      <c r="AO69" s="105" t="str">
         <f>VLOOKUP($AQ69,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -9528,7 +9528,7 @@
         <v>0</v>
       </c>
       <c r="AN70" s="59"/>
-      <c r="AO70" s="115" t="str">
+      <c r="AO70" s="105" t="str">
         <f>VLOOKUP($AQ70,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="AN71" s="59"/>
-      <c r="AO71" s="115" t="str">
+      <c r="AO71" s="105" t="str">
         <f>VLOOKUP($AQ71,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>0</v>
       </c>
       <c r="AN72" s="59"/>
-      <c r="AO72" s="115" t="str">
+      <c r="AO72" s="105" t="str">
         <f>VLOOKUP($AQ72,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="AN73" s="59"/>
-      <c r="AO73" s="115" t="str">
+      <c r="AO73" s="105" t="str">
         <f>VLOOKUP($AQ73,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -10004,7 +10004,7 @@
         <v>0</v>
       </c>
       <c r="AN74" s="59"/>
-      <c r="AO74" s="115" t="str">
+      <c r="AO74" s="105" t="str">
         <f>VLOOKUP($AQ74,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -10128,7 +10128,7 @@
       <c r="AN75" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="AO75" s="115" t="str">
+      <c r="AO75" s="105" t="str">
         <f>VLOOKUP($AQ75,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>Toshiba Z80 (Toshiba TMPZ84C00AP, ST Z84C00AB)</v>
       </c>
@@ -10252,7 +10252,7 @@
       <c r="AN76" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="AO76" s="115" t="str">
+      <c r="AO76" s="105" t="str">
         <f>VLOOKUP($AQ76,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>NMOS Z80 (Zilog Z80, Zilog Z08400 or similar NMOS CPU, Mosstek MK3880N, SGS/ST Z8400, Sharp LH0080A, KR1858VM1)</v>
       </c>
@@ -10311,16 +10311,16 @@
         <v>108</v>
       </c>
       <c r="S78" s="55"/>
-      <c r="T78" s="103" t="s">
+      <c r="T78" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="U78" s="104"/>
-      <c r="V78" s="104"/>
-      <c r="W78" s="104"/>
-      <c r="X78" s="104"/>
-      <c r="Y78" s="104"/>
-      <c r="Z78" s="104"/>
-      <c r="AA78" s="104"/>
+      <c r="U78" s="114"/>
+      <c r="V78" s="114"/>
+      <c r="W78" s="114"/>
+      <c r="X78" s="114"/>
+      <c r="Y78" s="114"/>
+      <c r="Z78" s="114"/>
+      <c r="AA78" s="114"/>
       <c r="AB78" s="61"/>
       <c r="AC78" s="99" t="s">
         <v>127</v>
@@ -10329,16 +10329,16 @@
         <v>128</v>
       </c>
       <c r="AE78" s="64"/>
-      <c r="AF78" s="105" t="s">
+      <c r="AF78" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="AG78" s="106"/>
-      <c r="AH78" s="106"/>
-      <c r="AI78" s="106"/>
-      <c r="AJ78" s="106"/>
-      <c r="AK78" s="106"/>
-      <c r="AL78" s="106"/>
-      <c r="AM78" s="106"/>
+      <c r="AG78" s="116"/>
+      <c r="AH78" s="116"/>
+      <c r="AI78" s="116"/>
+      <c r="AJ78" s="116"/>
+      <c r="AK78" s="116"/>
+      <c r="AL78" s="116"/>
+      <c r="AM78" s="116"/>
       <c r="AN78" s="65"/>
       <c r="AO78" s="101" t="s">
         <v>129</v>
@@ -10556,7 +10556,7 @@
         <v>0</v>
       </c>
       <c r="AN80" s="95"/>
-      <c r="AO80" s="116" t="str">
+      <c r="AO80" s="106" t="str">
         <f>VLOOKUP($AQ80,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -10661,14 +10661,14 @@
       <c r="AG81" s="26">
         <v>0</v>
       </c>
-      <c r="AH81" s="26">
-        <v>0</v>
+      <c r="AH81" s="29">
+        <v>1</v>
       </c>
       <c r="AI81" s="26">
         <v>0</v>
       </c>
-      <c r="AJ81" s="26">
-        <v>0</v>
+      <c r="AJ81" s="29">
+        <v>1</v>
       </c>
       <c r="AK81" s="26">
         <v>0</v>
@@ -10679,8 +10679,10 @@
       <c r="AM81" s="42">
         <v>0</v>
       </c>
-      <c r="AN81" s="59"/>
-      <c r="AO81" s="115" t="str">
+      <c r="AN81" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO81" s="105" t="str">
         <f>VLOOKUP($AQ81,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>CMOS Z80 (Zilog Z84C00)</v>
       </c>
@@ -10785,14 +10787,14 @@
       <c r="AG82" s="26">
         <v>0</v>
       </c>
-      <c r="AH82" s="26">
-        <v>0</v>
+      <c r="AH82" s="29">
+        <v>1</v>
       </c>
       <c r="AI82" s="26">
         <v>0</v>
       </c>
-      <c r="AJ82" s="26">
-        <v>0</v>
+      <c r="AJ82" s="29">
+        <v>1</v>
       </c>
       <c r="AK82" s="26">
         <v>0</v>
@@ -10803,8 +10805,10 @@
       <c r="AM82" s="42">
         <v>0</v>
       </c>
-      <c r="AN82" s="59"/>
-      <c r="AO82" s="115" t="str">
+      <c r="AN82" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO82" s="105" t="str">
         <f>VLOOKUP($AQ82,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>CMOS Z80 (Zilog Z84C00)</v>
       </c>
@@ -10907,14 +10911,14 @@
       <c r="AG83" s="26">
         <v>0</v>
       </c>
-      <c r="AH83" s="26">
-        <v>0</v>
+      <c r="AH83" s="29">
+        <v>1</v>
       </c>
       <c r="AI83" s="26">
         <v>0</v>
       </c>
-      <c r="AJ83" s="26">
-        <v>0</v>
+      <c r="AJ83" s="29">
+        <v>1</v>
       </c>
       <c r="AK83" s="26">
         <v>0</v>
@@ -10925,8 +10929,10 @@
       <c r="AM83" s="42">
         <v>0</v>
       </c>
-      <c r="AN83" s="59"/>
-      <c r="AO83" s="115" t="str">
+      <c r="AN83" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO83" s="105" t="str">
         <f>VLOOKUP($AQ83,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>NMOS Z80 (Zilog Z80, Zilog Z08400 or similar NMOS CPU, Mosstek MK3880N, SGS/ST Z8400, Sharp LH0080A, KR1858VM1)</v>
       </c>
@@ -11029,14 +11035,14 @@
       <c r="AG84" s="26">
         <v>0</v>
       </c>
-      <c r="AH84" s="26">
-        <v>0</v>
+      <c r="AH84" s="29">
+        <v>1</v>
       </c>
       <c r="AI84" s="26">
         <v>0</v>
       </c>
-      <c r="AJ84" s="26">
-        <v>0</v>
+      <c r="AJ84" s="29">
+        <v>1</v>
       </c>
       <c r="AK84" s="26">
         <v>0</v>
@@ -11047,8 +11053,10 @@
       <c r="AM84" s="42">
         <v>0</v>
       </c>
-      <c r="AN84" s="59"/>
-      <c r="AO84" s="115" t="str">
+      <c r="AN84" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO84" s="105" t="str">
         <f>VLOOKUP($AQ84,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>NMOS Z80 (Zilog Z80, Zilog Z08400 or similar NMOS CPU, Mosstek MK3880N, SGS/ST Z8400, Sharp LH0080A, KR1858VM1)</v>
       </c>
@@ -11153,14 +11161,14 @@
       <c r="AG85" s="26">
         <v>0</v>
       </c>
-      <c r="AH85" s="26">
-        <v>0</v>
+      <c r="AH85" s="29">
+        <v>1</v>
       </c>
       <c r="AI85" s="26">
         <v>0</v>
       </c>
-      <c r="AJ85" s="26">
-        <v>0</v>
+      <c r="AJ85" s="29">
+        <v>1</v>
       </c>
       <c r="AK85" s="26">
         <v>0</v>
@@ -11171,8 +11179,10 @@
       <c r="AM85" s="42">
         <v>0</v>
       </c>
-      <c r="AN85" s="59"/>
-      <c r="AO85" s="115" t="str">
+      <c r="AN85" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO85" s="105" t="str">
         <f>VLOOKUP($AQ85,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>NMOS Z80 (Zilog Z80, Zilog Z08400 or similar NMOS CPU, Mosstek MK3880N, SGS/ST Z8400, Sharp LH0080A, KR1858VM1)</v>
       </c>
@@ -11277,14 +11287,14 @@
       <c r="AG86" s="26">
         <v>0</v>
       </c>
-      <c r="AH86" s="26">
-        <v>0</v>
+      <c r="AH86" s="29">
+        <v>1</v>
       </c>
       <c r="AI86" s="26">
         <v>0</v>
       </c>
-      <c r="AJ86" s="26">
-        <v>0</v>
+      <c r="AJ86" s="29">
+        <v>1</v>
       </c>
       <c r="AK86" s="26">
         <v>0</v>
@@ -11295,8 +11305,10 @@
       <c r="AM86" s="42">
         <v>0</v>
       </c>
-      <c r="AN86" s="59"/>
-      <c r="AO86" s="115" t="str">
+      <c r="AN86" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO86" s="105" t="str">
         <f>VLOOKUP($AQ86,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>NMOS Z80 (Zilog Z80, Zilog Z08400 or similar NMOS CPU, Mosstek MK3880N, SGS/ST Z8400, Sharp LH0080A, KR1858VM1)</v>
       </c>
@@ -11397,14 +11409,14 @@
       <c r="AG87" s="26">
         <v>0</v>
       </c>
-      <c r="AH87" s="26">
-        <v>0</v>
+      <c r="AH87" s="29">
+        <v>1</v>
       </c>
       <c r="AI87" s="26">
         <v>0</v>
       </c>
-      <c r="AJ87" s="26">
-        <v>0</v>
+      <c r="AJ87" s="29">
+        <v>1</v>
       </c>
       <c r="AK87" s="26">
         <v>0</v>
@@ -11415,8 +11427,10 @@
       <c r="AM87" s="42">
         <v>0</v>
       </c>
-      <c r="AN87" s="59"/>
-      <c r="AO87" s="115" t="str">
+      <c r="AN87" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO87" s="105" t="str">
         <f>VLOOKUP($AQ87,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>NMOS Z80 (Zilog Z80, Zilog Z08400 or similar NMOS CPU, Mosstek MK3880N, SGS/ST Z8400, Sharp LH0080A, KR1858VM1)</v>
       </c>
@@ -11517,14 +11531,14 @@
       <c r="AG88" s="26">
         <v>0</v>
       </c>
-      <c r="AH88" s="26">
-        <v>0</v>
+      <c r="AH88" s="29">
+        <v>1</v>
       </c>
       <c r="AI88" s="26">
         <v>0</v>
       </c>
-      <c r="AJ88" s="26">
-        <v>0</v>
+      <c r="AJ88" s="29">
+        <v>1</v>
       </c>
       <c r="AK88" s="26">
         <v>0</v>
@@ -11535,8 +11549,10 @@
       <c r="AM88" s="42">
         <v>0</v>
       </c>
-      <c r="AN88" s="59"/>
-      <c r="AO88" s="115" t="str">
+      <c r="AN88" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO88" s="105" t="str">
         <f>VLOOKUP($AQ88,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>CMOS Z80 (Zilog Z84C00)</v>
       </c>
@@ -11645,16 +11661,16 @@
         <v>108</v>
       </c>
       <c r="S91" s="55"/>
-      <c r="T91" s="103" t="s">
+      <c r="T91" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="U91" s="104"/>
-      <c r="V91" s="104"/>
-      <c r="W91" s="104"/>
-      <c r="X91" s="104"/>
-      <c r="Y91" s="104"/>
-      <c r="Z91" s="104"/>
-      <c r="AA91" s="104"/>
+      <c r="U91" s="114"/>
+      <c r="V91" s="114"/>
+      <c r="W91" s="114"/>
+      <c r="X91" s="114"/>
+      <c r="Y91" s="114"/>
+      <c r="Z91" s="114"/>
+      <c r="AA91" s="114"/>
       <c r="AB91" s="61"/>
       <c r="AC91" s="99" t="s">
         <v>127</v>
@@ -11663,16 +11679,16 @@
         <v>128</v>
       </c>
       <c r="AE91" s="64"/>
-      <c r="AF91" s="105" t="s">
+      <c r="AF91" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="AG91" s="106"/>
-      <c r="AH91" s="106"/>
-      <c r="AI91" s="106"/>
-      <c r="AJ91" s="106"/>
-      <c r="AK91" s="106"/>
-      <c r="AL91" s="106"/>
-      <c r="AM91" s="106"/>
+      <c r="AG91" s="116"/>
+      <c r="AH91" s="116"/>
+      <c r="AI91" s="116"/>
+      <c r="AJ91" s="116"/>
+      <c r="AK91" s="116"/>
+      <c r="AL91" s="116"/>
+      <c r="AM91" s="116"/>
       <c r="AN91" s="65"/>
       <c r="AO91" s="101" t="s">
         <v>129</v>
@@ -11890,7 +11906,7 @@
         <v>0</v>
       </c>
       <c r="AN93" s="95"/>
-      <c r="AO93" s="116" t="str">
+      <c r="AO93" s="106" t="str">
         <f>VLOOKUP($AQ93,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -12014,7 +12030,7 @@
       <c r="AN94" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="AO94" s="115" t="str">
+      <c r="AO94" s="105" t="str">
         <f>VLOOKUP($AQ94,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>NMOS Z80 (Zilog Z80, Zilog Z08400 or similar NMOS CPU, Mosstek MK3880N, SGS/ST Z8400, Sharp LH0080A, KR1858VM1)</v>
       </c>
@@ -12140,7 +12156,7 @@
       <c r="AN95" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="AO95" s="115" t="str">
+      <c r="AO95" s="105" t="str">
         <f>VLOOKUP($AQ95,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>NMOS Z80 (Zilog Z80, Zilog Z08400 or similar NMOS CPU, Mosstek MK3880N, SGS/ST Z8400, Sharp LH0080A, KR1858VM1)</v>
       </c>
@@ -12266,7 +12282,7 @@
       <c r="AN96" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="AO96" s="115" t="str">
+      <c r="AO96" s="105" t="str">
         <f>VLOOKUP($AQ96,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>NMOS Z80 (Zilog Z80, Zilog Z08400 or similar NMOS CPU, Mosstek MK3880N, SGS/ST Z8400, Sharp LH0080A, KR1858VM1)</v>
       </c>
@@ -12334,16 +12350,16 @@
         <v>108</v>
       </c>
       <c r="S99" s="55"/>
-      <c r="T99" s="103" t="s">
+      <c r="T99" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="U99" s="104"/>
-      <c r="V99" s="104"/>
-      <c r="W99" s="104"/>
-      <c r="X99" s="104"/>
-      <c r="Y99" s="104"/>
-      <c r="Z99" s="104"/>
-      <c r="AA99" s="104"/>
+      <c r="U99" s="114"/>
+      <c r="V99" s="114"/>
+      <c r="W99" s="114"/>
+      <c r="X99" s="114"/>
+      <c r="Y99" s="114"/>
+      <c r="Z99" s="114"/>
+      <c r="AA99" s="114"/>
       <c r="AB99" s="61"/>
       <c r="AC99" s="99" t="s">
         <v>127</v>
@@ -12352,16 +12368,16 @@
         <v>128</v>
       </c>
       <c r="AE99" s="64"/>
-      <c r="AF99" s="105" t="s">
+      <c r="AF99" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="AG99" s="106"/>
-      <c r="AH99" s="106"/>
-      <c r="AI99" s="106"/>
-      <c r="AJ99" s="106"/>
-      <c r="AK99" s="106"/>
-      <c r="AL99" s="106"/>
-      <c r="AM99" s="106"/>
+      <c r="AG99" s="116"/>
+      <c r="AH99" s="116"/>
+      <c r="AI99" s="116"/>
+      <c r="AJ99" s="116"/>
+      <c r="AK99" s="116"/>
+      <c r="AL99" s="116"/>
+      <c r="AM99" s="116"/>
       <c r="AN99" s="65"/>
       <c r="AO99" s="101" t="s">
         <v>129</v>
@@ -12579,7 +12595,7 @@
         <v>0</v>
       </c>
       <c r="AN101" s="95"/>
-      <c r="AO101" s="116" t="str">
+      <c r="AO101" s="106" t="str">
         <f>VLOOKUP($AQ101,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -12647,16 +12663,16 @@
         <v>108</v>
       </c>
       <c r="S104" s="55"/>
-      <c r="T104" s="103" t="s">
+      <c r="T104" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="U104" s="104"/>
-      <c r="V104" s="104"/>
-      <c r="W104" s="104"/>
-      <c r="X104" s="104"/>
-      <c r="Y104" s="104"/>
-      <c r="Z104" s="104"/>
-      <c r="AA104" s="104"/>
+      <c r="U104" s="114"/>
+      <c r="V104" s="114"/>
+      <c r="W104" s="114"/>
+      <c r="X104" s="114"/>
+      <c r="Y104" s="114"/>
+      <c r="Z104" s="114"/>
+      <c r="AA104" s="114"/>
       <c r="AB104" s="61"/>
       <c r="AC104" s="99" t="s">
         <v>127</v>
@@ -12665,16 +12681,16 @@
         <v>128</v>
       </c>
       <c r="AE104" s="64"/>
-      <c r="AF104" s="105" t="s">
+      <c r="AF104" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="AG104" s="106"/>
-      <c r="AH104" s="106"/>
-      <c r="AI104" s="106"/>
-      <c r="AJ104" s="106"/>
-      <c r="AK104" s="106"/>
-      <c r="AL104" s="106"/>
-      <c r="AM104" s="106"/>
+      <c r="AG104" s="116"/>
+      <c r="AH104" s="116"/>
+      <c r="AI104" s="116"/>
+      <c r="AJ104" s="116"/>
+      <c r="AK104" s="116"/>
+      <c r="AL104" s="116"/>
+      <c r="AM104" s="116"/>
       <c r="AN104" s="65"/>
       <c r="AO104" s="101" t="s">
         <v>129</v>
@@ -12892,7 +12908,7 @@
         <v>0</v>
       </c>
       <c r="AN106" s="95"/>
-      <c r="AO106" s="116" t="str">
+      <c r="AO106" s="106" t="str">
         <f>VLOOKUP($AQ106,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -12929,7 +12945,7 @@
       <c r="K107" s="22">
         <v>0</v>
       </c>
-      <c r="L107" s="118">
+      <c r="L107" s="108">
         <v>1</v>
       </c>
       <c r="M107" s="26" t="s">
@@ -12994,7 +13010,7 @@
       <c r="AL107" s="26"/>
       <c r="AM107" s="42"/>
       <c r="AN107" s="59"/>
-      <c r="AO107" s="115" t="str">
+      <c r="AO107" s="105" t="str">
         <f>VLOOKUP($AQ107,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>U880 (newer; MME U880, Thesys Z80, Microelectronica MMN 80CPU)</v>
       </c>
@@ -13031,7 +13047,7 @@
       <c r="K108" s="22">
         <v>0</v>
       </c>
-      <c r="L108" s="119">
+      <c r="L108" s="109">
         <v>1</v>
       </c>
       <c r="M108" s="26" t="s">
@@ -13096,7 +13112,7 @@
       <c r="AL108" s="26"/>
       <c r="AM108" s="42"/>
       <c r="AN108" s="59"/>
-      <c r="AO108" s="115" t="str">
+      <c r="AO108" s="105" t="str">
         <f>VLOOKUP($AQ108,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>U880 (older; MME U880)</v>
       </c>
@@ -13164,16 +13180,16 @@
         <v>108</v>
       </c>
       <c r="S111" s="55"/>
-      <c r="T111" s="103" t="s">
+      <c r="T111" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="U111" s="104"/>
-      <c r="V111" s="104"/>
-      <c r="W111" s="104"/>
-      <c r="X111" s="104"/>
-      <c r="Y111" s="104"/>
-      <c r="Z111" s="104"/>
-      <c r="AA111" s="104"/>
+      <c r="U111" s="114"/>
+      <c r="V111" s="114"/>
+      <c r="W111" s="114"/>
+      <c r="X111" s="114"/>
+      <c r="Y111" s="114"/>
+      <c r="Z111" s="114"/>
+      <c r="AA111" s="114"/>
       <c r="AB111" s="61"/>
       <c r="AC111" s="99" t="s">
         <v>127</v>
@@ -13182,16 +13198,16 @@
         <v>128</v>
       </c>
       <c r="AE111" s="64"/>
-      <c r="AF111" s="105" t="s">
+      <c r="AF111" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="AG111" s="106"/>
-      <c r="AH111" s="106"/>
-      <c r="AI111" s="106"/>
-      <c r="AJ111" s="106"/>
-      <c r="AK111" s="106"/>
-      <c r="AL111" s="106"/>
-      <c r="AM111" s="106"/>
+      <c r="AG111" s="116"/>
+      <c r="AH111" s="116"/>
+      <c r="AI111" s="116"/>
+      <c r="AJ111" s="116"/>
+      <c r="AK111" s="116"/>
+      <c r="AL111" s="116"/>
+      <c r="AM111" s="116"/>
       <c r="AN111" s="65"/>
       <c r="AO111" s="101" t="s">
         <v>129</v>
@@ -13409,7 +13425,7 @@
         <v>0</v>
       </c>
       <c r="AN113" s="95"/>
-      <c r="AO113" s="116" t="str">
+      <c r="AO113" s="106" t="str">
         <f>VLOOKUP($AQ113,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -13477,16 +13493,16 @@
         <v>108</v>
       </c>
       <c r="S116" s="55"/>
-      <c r="T116" s="103" t="s">
+      <c r="T116" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="U116" s="104"/>
-      <c r="V116" s="104"/>
-      <c r="W116" s="104"/>
-      <c r="X116" s="104"/>
-      <c r="Y116" s="104"/>
-      <c r="Z116" s="104"/>
-      <c r="AA116" s="104"/>
+      <c r="U116" s="114"/>
+      <c r="V116" s="114"/>
+      <c r="W116" s="114"/>
+      <c r="X116" s="114"/>
+      <c r="Y116" s="114"/>
+      <c r="Z116" s="114"/>
+      <c r="AA116" s="114"/>
       <c r="AB116" s="61"/>
       <c r="AC116" s="99" t="s">
         <v>127</v>
@@ -13495,16 +13511,16 @@
         <v>128</v>
       </c>
       <c r="AE116" s="64"/>
-      <c r="AF116" s="105" t="s">
+      <c r="AF116" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="AG116" s="106"/>
-      <c r="AH116" s="106"/>
-      <c r="AI116" s="106"/>
-      <c r="AJ116" s="106"/>
-      <c r="AK116" s="106"/>
-      <c r="AL116" s="106"/>
-      <c r="AM116" s="106"/>
+      <c r="AG116" s="116"/>
+      <c r="AH116" s="116"/>
+      <c r="AI116" s="116"/>
+      <c r="AJ116" s="116"/>
+      <c r="AK116" s="116"/>
+      <c r="AL116" s="116"/>
+      <c r="AM116" s="116"/>
       <c r="AN116" s="65"/>
       <c r="AO116" s="101" t="s">
         <v>129</v>
@@ -13722,7 +13738,7 @@
         <v>0</v>
       </c>
       <c r="AN118" s="95"/>
-      <c r="AO118" s="116" t="str">
+      <c r="AO118" s="106" t="str">
         <f>VLOOKUP($AQ118,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -13761,7 +13777,7 @@
       <c r="K119" s="22">
         <v>0</v>
       </c>
-      <c r="L119" s="119">
+      <c r="L119" s="109">
         <v>1</v>
       </c>
       <c r="M119" s="26" t="s">
@@ -13826,7 +13842,7 @@
       <c r="AL119" s="26"/>
       <c r="AM119" s="42"/>
       <c r="AN119" s="59"/>
-      <c r="AO119" s="115" t="str">
+      <c r="AO119" s="105" t="str">
         <f>VLOOKUP($AQ119,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>U880 (newer; MME U880, Thesys Z80, Microelectronica MMN 80CPU)</v>
       </c>
@@ -13894,16 +13910,16 @@
         <v>108</v>
       </c>
       <c r="S122" s="55"/>
-      <c r="T122" s="103" t="s">
+      <c r="T122" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="U122" s="104"/>
-      <c r="V122" s="104"/>
-      <c r="W122" s="104"/>
-      <c r="X122" s="104"/>
-      <c r="Y122" s="104"/>
-      <c r="Z122" s="104"/>
-      <c r="AA122" s="104"/>
+      <c r="U122" s="114"/>
+      <c r="V122" s="114"/>
+      <c r="W122" s="114"/>
+      <c r="X122" s="114"/>
+      <c r="Y122" s="114"/>
+      <c r="Z122" s="114"/>
+      <c r="AA122" s="114"/>
       <c r="AB122" s="61"/>
       <c r="AC122" s="99" t="s">
         <v>127</v>
@@ -13912,16 +13928,16 @@
         <v>128</v>
       </c>
       <c r="AE122" s="64"/>
-      <c r="AF122" s="105" t="s">
+      <c r="AF122" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="AG122" s="106"/>
-      <c r="AH122" s="106"/>
-      <c r="AI122" s="106"/>
-      <c r="AJ122" s="106"/>
-      <c r="AK122" s="106"/>
-      <c r="AL122" s="106"/>
-      <c r="AM122" s="106"/>
+      <c r="AG122" s="116"/>
+      <c r="AH122" s="116"/>
+      <c r="AI122" s="116"/>
+      <c r="AJ122" s="116"/>
+      <c r="AK122" s="116"/>
+      <c r="AL122" s="116"/>
+      <c r="AM122" s="116"/>
       <c r="AN122" s="65"/>
       <c r="AO122" s="101" t="s">
         <v>129</v>
@@ -14139,7 +14155,7 @@
         <v>0</v>
       </c>
       <c r="AN124" s="95"/>
-      <c r="AO124" s="116" t="str">
+      <c r="AO124" s="106" t="str">
         <f>VLOOKUP($AQ124,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -14245,7 +14261,7 @@
       <c r="AL125" s="26"/>
       <c r="AM125" s="42"/>
       <c r="AN125" s="59"/>
-      <c r="AO125" s="115" t="str">
+      <c r="AO125" s="105" t="str">
         <f>VLOOKUP($AQ125,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>NMOS Z80 (Zilog Z80, Zilog Z08400 or similar NMOS CPU, Mosstek MK3880N, SGS/ST Z8400, Sharp LH0080A, KR1858VM1)</v>
       </c>
@@ -14313,16 +14329,16 @@
         <v>108</v>
       </c>
       <c r="S128" s="55"/>
-      <c r="T128" s="103" t="s">
+      <c r="T128" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="U128" s="104"/>
-      <c r="V128" s="104"/>
-      <c r="W128" s="104"/>
-      <c r="X128" s="104"/>
-      <c r="Y128" s="104"/>
-      <c r="Z128" s="104"/>
-      <c r="AA128" s="104"/>
+      <c r="U128" s="114"/>
+      <c r="V128" s="114"/>
+      <c r="W128" s="114"/>
+      <c r="X128" s="114"/>
+      <c r="Y128" s="114"/>
+      <c r="Z128" s="114"/>
+      <c r="AA128" s="114"/>
       <c r="AB128" s="61"/>
       <c r="AC128" s="99" t="s">
         <v>127</v>
@@ -14331,16 +14347,16 @@
         <v>128</v>
       </c>
       <c r="AE128" s="64"/>
-      <c r="AF128" s="105" t="s">
+      <c r="AF128" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="AG128" s="106"/>
-      <c r="AH128" s="106"/>
-      <c r="AI128" s="106"/>
-      <c r="AJ128" s="106"/>
-      <c r="AK128" s="106"/>
-      <c r="AL128" s="106"/>
-      <c r="AM128" s="106"/>
+      <c r="AG128" s="116"/>
+      <c r="AH128" s="116"/>
+      <c r="AI128" s="116"/>
+      <c r="AJ128" s="116"/>
+      <c r="AK128" s="116"/>
+      <c r="AL128" s="116"/>
+      <c r="AM128" s="116"/>
       <c r="AN128" s="65"/>
       <c r="AO128" s="101" t="s">
         <v>129</v>
@@ -14558,7 +14574,7 @@
         <v>0</v>
       </c>
       <c r="AN130" s="95"/>
-      <c r="AO130" s="116" t="str">
+      <c r="AO130" s="106" t="str">
         <f>VLOOKUP($AQ130,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -14662,7 +14678,7 @@
       <c r="AL131" s="26"/>
       <c r="AM131" s="42"/>
       <c r="AN131" s="59"/>
-      <c r="AO131" s="115" t="str">
+      <c r="AO131" s="105" t="str">
         <f>VLOOKUP($AQ131,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>NEC D780C (NEC D780C, GoldStar Z8400, possibly KR1858VM1)</v>
       </c>
@@ -14766,7 +14782,7 @@
       <c r="AL132" s="26"/>
       <c r="AM132" s="42"/>
       <c r="AN132" s="59"/>
-      <c r="AO132" s="115" t="str">
+      <c r="AO132" s="105" t="str">
         <f>VLOOKUP($AQ132,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>KR1858VM1 (overclocked)</v>
       </c>
@@ -14834,16 +14850,16 @@
         <v>108</v>
       </c>
       <c r="S135" s="55"/>
-      <c r="T135" s="103" t="s">
+      <c r="T135" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="U135" s="104"/>
-      <c r="V135" s="104"/>
-      <c r="W135" s="104"/>
-      <c r="X135" s="104"/>
-      <c r="Y135" s="104"/>
-      <c r="Z135" s="104"/>
-      <c r="AA135" s="104"/>
+      <c r="U135" s="114"/>
+      <c r="V135" s="114"/>
+      <c r="W135" s="114"/>
+      <c r="X135" s="114"/>
+      <c r="Y135" s="114"/>
+      <c r="Z135" s="114"/>
+      <c r="AA135" s="114"/>
       <c r="AB135" s="61"/>
       <c r="AC135" s="99" t="s">
         <v>127</v>
@@ -14852,16 +14868,16 @@
         <v>128</v>
       </c>
       <c r="AE135" s="64"/>
-      <c r="AF135" s="105" t="s">
+      <c r="AF135" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="AG135" s="106"/>
-      <c r="AH135" s="106"/>
-      <c r="AI135" s="106"/>
-      <c r="AJ135" s="106"/>
-      <c r="AK135" s="106"/>
-      <c r="AL135" s="106"/>
-      <c r="AM135" s="106"/>
+      <c r="AG135" s="116"/>
+      <c r="AH135" s="116"/>
+      <c r="AI135" s="116"/>
+      <c r="AJ135" s="116"/>
+      <c r="AK135" s="116"/>
+      <c r="AL135" s="116"/>
+      <c r="AM135" s="116"/>
       <c r="AN135" s="65"/>
       <c r="AO135" s="101" t="s">
         <v>129</v>
@@ -15079,7 +15095,7 @@
         <v>0</v>
       </c>
       <c r="AN137" s="95"/>
-      <c r="AO137" s="116" t="str">
+      <c r="AO137" s="106" t="str">
         <f>VLOOKUP($AQ137,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -15147,16 +15163,16 @@
         <v>108</v>
       </c>
       <c r="S140" s="55"/>
-      <c r="T140" s="103" t="s">
+      <c r="T140" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="U140" s="104"/>
-      <c r="V140" s="104"/>
-      <c r="W140" s="104"/>
-      <c r="X140" s="104"/>
-      <c r="Y140" s="104"/>
-      <c r="Z140" s="104"/>
-      <c r="AA140" s="104"/>
+      <c r="U140" s="114"/>
+      <c r="V140" s="114"/>
+      <c r="W140" s="114"/>
+      <c r="X140" s="114"/>
+      <c r="Y140" s="114"/>
+      <c r="Z140" s="114"/>
+      <c r="AA140" s="114"/>
       <c r="AB140" s="61"/>
       <c r="AC140" s="99" t="s">
         <v>127</v>
@@ -15165,16 +15181,16 @@
         <v>128</v>
       </c>
       <c r="AE140" s="64"/>
-      <c r="AF140" s="105" t="s">
+      <c r="AF140" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="AG140" s="106"/>
-      <c r="AH140" s="106"/>
-      <c r="AI140" s="106"/>
-      <c r="AJ140" s="106"/>
-      <c r="AK140" s="106"/>
-      <c r="AL140" s="106"/>
-      <c r="AM140" s="106"/>
+      <c r="AG140" s="116"/>
+      <c r="AH140" s="116"/>
+      <c r="AI140" s="116"/>
+      <c r="AJ140" s="116"/>
+      <c r="AK140" s="116"/>
+      <c r="AL140" s="116"/>
+      <c r="AM140" s="116"/>
       <c r="AN140" s="65"/>
       <c r="AO140" s="101" t="s">
         <v>129</v>
@@ -15392,7 +15408,7 @@
         <v>0</v>
       </c>
       <c r="AN142" s="95"/>
-      <c r="AO142" s="116" t="str">
+      <c r="AO142" s="106" t="str">
         <f>VLOOKUP($AQ142,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -15460,16 +15476,16 @@
         <v>108</v>
       </c>
       <c r="S145" s="55"/>
-      <c r="T145" s="103" t="s">
+      <c r="T145" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="U145" s="104"/>
-      <c r="V145" s="104"/>
-      <c r="W145" s="104"/>
-      <c r="X145" s="104"/>
-      <c r="Y145" s="104"/>
-      <c r="Z145" s="104"/>
-      <c r="AA145" s="104"/>
+      <c r="U145" s="114"/>
+      <c r="V145" s="114"/>
+      <c r="W145" s="114"/>
+      <c r="X145" s="114"/>
+      <c r="Y145" s="114"/>
+      <c r="Z145" s="114"/>
+      <c r="AA145" s="114"/>
       <c r="AB145" s="61"/>
       <c r="AC145" s="99" t="s">
         <v>127</v>
@@ -15478,16 +15494,16 @@
         <v>128</v>
       </c>
       <c r="AE145" s="64"/>
-      <c r="AF145" s="105" t="s">
+      <c r="AF145" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="AG145" s="106"/>
-      <c r="AH145" s="106"/>
-      <c r="AI145" s="106"/>
-      <c r="AJ145" s="106"/>
-      <c r="AK145" s="106"/>
-      <c r="AL145" s="106"/>
-      <c r="AM145" s="106"/>
+      <c r="AG145" s="116"/>
+      <c r="AH145" s="116"/>
+      <c r="AI145" s="116"/>
+      <c r="AJ145" s="116"/>
+      <c r="AK145" s="116"/>
+      <c r="AL145" s="116"/>
+      <c r="AM145" s="116"/>
       <c r="AN145" s="65"/>
       <c r="AO145" s="101" t="s">
         <v>129</v>
@@ -15705,7 +15721,7 @@
         <v>0</v>
       </c>
       <c r="AN147" s="95"/>
-      <c r="AO147" s="116" t="str">
+      <c r="AO147" s="106" t="str">
         <f>VLOOKUP($AQ147,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -15773,16 +15789,16 @@
         <v>108</v>
       </c>
       <c r="S150" s="55"/>
-      <c r="T150" s="103" t="s">
+      <c r="T150" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="U150" s="104"/>
-      <c r="V150" s="104"/>
-      <c r="W150" s="104"/>
-      <c r="X150" s="104"/>
-      <c r="Y150" s="104"/>
-      <c r="Z150" s="104"/>
-      <c r="AA150" s="104"/>
+      <c r="U150" s="114"/>
+      <c r="V150" s="114"/>
+      <c r="W150" s="114"/>
+      <c r="X150" s="114"/>
+      <c r="Y150" s="114"/>
+      <c r="Z150" s="114"/>
+      <c r="AA150" s="114"/>
       <c r="AB150" s="61"/>
       <c r="AC150" s="99" t="s">
         <v>127</v>
@@ -15791,16 +15807,16 @@
         <v>128</v>
       </c>
       <c r="AE150" s="64"/>
-      <c r="AF150" s="105" t="s">
+      <c r="AF150" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="AG150" s="106"/>
-      <c r="AH150" s="106"/>
-      <c r="AI150" s="106"/>
-      <c r="AJ150" s="106"/>
-      <c r="AK150" s="106"/>
-      <c r="AL150" s="106"/>
-      <c r="AM150" s="106"/>
+      <c r="AG150" s="116"/>
+      <c r="AH150" s="116"/>
+      <c r="AI150" s="116"/>
+      <c r="AJ150" s="116"/>
+      <c r="AK150" s="116"/>
+      <c r="AL150" s="116"/>
+      <c r="AM150" s="116"/>
       <c r="AN150" s="65"/>
       <c r="AO150" s="101" t="s">
         <v>129</v>
@@ -16018,7 +16034,7 @@
         <v>0</v>
       </c>
       <c r="AN152" s="95"/>
-      <c r="AO152" s="116" t="str">
+      <c r="AO152" s="106" t="str">
         <f>VLOOKUP($AQ152,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -16086,16 +16102,16 @@
         <v>108</v>
       </c>
       <c r="S155" s="55"/>
-      <c r="T155" s="103" t="s">
+      <c r="T155" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="U155" s="104"/>
-      <c r="V155" s="104"/>
-      <c r="W155" s="104"/>
-      <c r="X155" s="104"/>
-      <c r="Y155" s="104"/>
-      <c r="Z155" s="104"/>
-      <c r="AA155" s="104"/>
+      <c r="U155" s="114"/>
+      <c r="V155" s="114"/>
+      <c r="W155" s="114"/>
+      <c r="X155" s="114"/>
+      <c r="Y155" s="114"/>
+      <c r="Z155" s="114"/>
+      <c r="AA155" s="114"/>
       <c r="AB155" s="61"/>
       <c r="AC155" s="99" t="s">
         <v>127</v>
@@ -16104,16 +16120,16 @@
         <v>128</v>
       </c>
       <c r="AE155" s="64"/>
-      <c r="AF155" s="105" t="s">
+      <c r="AF155" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="AG155" s="106"/>
-      <c r="AH155" s="106"/>
-      <c r="AI155" s="106"/>
-      <c r="AJ155" s="106"/>
-      <c r="AK155" s="106"/>
-      <c r="AL155" s="106"/>
-      <c r="AM155" s="106"/>
+      <c r="AG155" s="116"/>
+      <c r="AH155" s="116"/>
+      <c r="AI155" s="116"/>
+      <c r="AJ155" s="116"/>
+      <c r="AK155" s="116"/>
+      <c r="AL155" s="116"/>
+      <c r="AM155" s="116"/>
       <c r="AN155" s="65"/>
       <c r="AO155" s="101" t="s">
         <v>129</v>
@@ -16331,7 +16347,7 @@
         <v>0</v>
       </c>
       <c r="AN157" s="95"/>
-      <c r="AO157" s="116" t="str">
+      <c r="AO157" s="106" t="str">
         <f>VLOOKUP($AQ157,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -16370,7 +16386,7 @@
       <c r="K158" s="22">
         <v>0</v>
       </c>
-      <c r="L158" s="119">
+      <c r="L158" s="109">
         <v>1</v>
       </c>
       <c r="M158" s="26" t="s">
@@ -16435,7 +16451,7 @@
       <c r="AL158" s="26"/>
       <c r="AM158" s="42"/>
       <c r="AN158" s="59"/>
-      <c r="AO158" s="115" t="str">
+      <c r="AO158" s="105" t="str">
         <f>VLOOKUP($AQ158,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>U880 (newer; MME U880, Thesys Z80, Microelectronica MMN 80CPU)</v>
       </c>
@@ -16490,16 +16506,16 @@
         <v>108</v>
       </c>
       <c r="S160" s="55"/>
-      <c r="T160" s="103" t="s">
+      <c r="T160" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="U160" s="104"/>
-      <c r="V160" s="104"/>
-      <c r="W160" s="104"/>
-      <c r="X160" s="104"/>
-      <c r="Y160" s="104"/>
-      <c r="Z160" s="104"/>
-      <c r="AA160" s="104"/>
+      <c r="U160" s="114"/>
+      <c r="V160" s="114"/>
+      <c r="W160" s="114"/>
+      <c r="X160" s="114"/>
+      <c r="Y160" s="114"/>
+      <c r="Z160" s="114"/>
+      <c r="AA160" s="114"/>
       <c r="AB160" s="61"/>
       <c r="AC160" s="99" t="s">
         <v>127</v>
@@ -16508,16 +16524,16 @@
         <v>128</v>
       </c>
       <c r="AE160" s="64"/>
-      <c r="AF160" s="105" t="s">
+      <c r="AF160" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="AG160" s="106"/>
-      <c r="AH160" s="106"/>
-      <c r="AI160" s="106"/>
-      <c r="AJ160" s="106"/>
-      <c r="AK160" s="106"/>
-      <c r="AL160" s="106"/>
-      <c r="AM160" s="106"/>
+      <c r="AG160" s="116"/>
+      <c r="AH160" s="116"/>
+      <c r="AI160" s="116"/>
+      <c r="AJ160" s="116"/>
+      <c r="AK160" s="116"/>
+      <c r="AL160" s="116"/>
+      <c r="AM160" s="116"/>
       <c r="AN160" s="65"/>
       <c r="AO160" s="101" t="s">
         <v>129</v>
@@ -16735,7 +16751,7 @@
         <v>0</v>
       </c>
       <c r="AN162" s="95"/>
-      <c r="AO162" s="116" t="str">
+      <c r="AO162" s="106" t="str">
         <f>VLOOKUP($AQ162,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
@@ -16743,7 +16759,7 @@
         <v>130</v>
       </c>
       <c r="AQ162" t="str">
-        <f>O162&amp;P162&amp;Q162&amp;R162</f>
+        <f t="shared" ref="AQ162:AQ168" si="21">O162&amp;P162&amp;Q162&amp;R162</f>
         <v>0000</v>
       </c>
     </row>
@@ -16796,7 +16812,7 @@
       <c r="Q163" s="26">
         <v>0</v>
       </c>
-      <c r="R163" s="120">
+      <c r="R163" s="110">
         <v>1</v>
       </c>
       <c r="S163" s="28"/>
@@ -16843,7 +16859,7 @@
       <c r="AL163" s="26"/>
       <c r="AM163" s="42"/>
       <c r="AN163" s="59"/>
-      <c r="AO163" s="115" t="str">
+      <c r="AO163" s="105" t="str">
         <f>VLOOKUP($AQ163,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>NEC D70008AC</v>
       </c>
@@ -16851,13 +16867,13 @@
         <v>130</v>
       </c>
       <c r="AQ163" t="str">
-        <f>O163&amp;P163&amp;Q163&amp;R163</f>
+        <f t="shared" si="21"/>
         <v>1101</v>
       </c>
     </row>
     <row r="164" spans="1:43" ht="18.75">
       <c r="A164" s="22">
-        <f t="shared" ref="A164:A168" si="21">A163+1</f>
+        <f t="shared" ref="A164:A168" si="22">A163+1</f>
         <v>3</v>
       </c>
       <c r="B164" s="23" t="s">
@@ -16951,7 +16967,7 @@
       <c r="AL164" s="26"/>
       <c r="AM164" s="42"/>
       <c r="AN164" s="59"/>
-      <c r="AO164" s="115" t="str">
+      <c r="AO164" s="105" t="str">
         <f>VLOOKUP($AQ164,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>Unknown CMOS Z80 Clone</v>
       </c>
@@ -16959,13 +16975,13 @@
         <v>130</v>
       </c>
       <c r="AQ164" t="str">
-        <f>O164&amp;P164&amp;Q164&amp;R164</f>
+        <f t="shared" si="21"/>
         <v>1110</v>
       </c>
     </row>
     <row r="165" spans="1:43" ht="18.75">
       <c r="A165" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="B165" s="23" t="s">
@@ -17012,7 +17028,7 @@
       <c r="Q165" s="26">
         <v>0</v>
       </c>
-      <c r="R165" s="120">
+      <c r="R165" s="110">
         <v>1</v>
       </c>
       <c r="S165" s="28"/>
@@ -17059,7 +17075,7 @@
       <c r="AL165" s="26"/>
       <c r="AM165" s="42"/>
       <c r="AN165" s="59"/>
-      <c r="AO165" s="115" t="str">
+      <c r="AO165" s="105" t="str">
         <f>VLOOKUP($AQ165,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>NEC D70008AC</v>
       </c>
@@ -17067,13 +17083,13 @@
         <v>130</v>
       </c>
       <c r="AQ165" t="str">
-        <f>O165&amp;P165&amp;Q165&amp;R165</f>
+        <f t="shared" si="21"/>
         <v>1101</v>
       </c>
     </row>
     <row r="166" spans="1:43" ht="18.75">
       <c r="A166" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="B166" s="23" t="s">
@@ -17167,7 +17183,7 @@
       <c r="AL166" s="26"/>
       <c r="AM166" s="42"/>
       <c r="AN166" s="59"/>
-      <c r="AO166" s="115" t="str">
+      <c r="AO166" s="105" t="str">
         <f>VLOOKUP($AQ166,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>NEC D780C (NEC D780C, GoldStar Z8400, possibly KR1858VM1)</v>
       </c>
@@ -17175,13 +17191,13 @@
         <v>130</v>
       </c>
       <c r="AQ166" t="str">
-        <f>O166&amp;P166&amp;Q166&amp;R166</f>
+        <f t="shared" si="21"/>
         <v>1000</v>
       </c>
     </row>
     <row r="167" spans="1:43" ht="18.75">
       <c r="A167" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="B167" s="23" t="s">
@@ -17293,7 +17309,7 @@
       <c r="AN167" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="AO167" s="115" t="str">
+      <c r="AO167" s="105" t="str">
         <f>VLOOKUP($AQ167,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>NEC D780C (NEC D780C, GoldStar Z8400, possibly KR1858VM1)</v>
       </c>
@@ -17301,13 +17317,13 @@
         <v>130</v>
       </c>
       <c r="AQ167" t="str">
-        <f>O167&amp;P167&amp;Q167&amp;R167</f>
+        <f t="shared" si="21"/>
         <v>1000</v>
       </c>
     </row>
     <row r="168" spans="1:43" ht="18.75">
       <c r="A168" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="B168" s="23" t="s">
@@ -17382,7 +17398,7 @@
       <c r="AA168" s="22">
         <v>0</v>
       </c>
-      <c r="AB168" s="113" t="s">
+      <c r="AB168" s="103" t="s">
         <v>218</v>
       </c>
       <c r="AC168" s="28" t="s">
@@ -17416,10 +17432,10 @@
       <c r="AM168" s="42">
         <v>0</v>
       </c>
-      <c r="AN168" s="113" t="s">
+      <c r="AN168" s="103" t="s">
         <v>212</v>
       </c>
-      <c r="AO168" s="115" t="str">
+      <c r="AO168" s="105" t="str">
         <f>VLOOKUP($AQ168,Auswertung!$A$2:$B$17,2,FALSE)</f>
         <v>NEC D780C (NEC D780C, GoldStar Z8400, possibly KR1858VM1)</v>
       </c>
@@ -17427,7 +17443,7 @@
         <v>130</v>
       </c>
       <c r="AQ168" t="str">
-        <f>O168&amp;P168&amp;Q168&amp;R168</f>
+        <f t="shared" si="21"/>
         <v>1000</v>
       </c>
     </row>
@@ -18298,36 +18314,28 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="T160:AA160"/>
-    <mergeCell ref="AF160:AM160"/>
-    <mergeCell ref="B155:D155"/>
-    <mergeCell ref="T155:AA155"/>
-    <mergeCell ref="AF155:AM155"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="T145:AA145"/>
-    <mergeCell ref="AF145:AM145"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="T150:AA150"/>
-    <mergeCell ref="AF150:AM150"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="T135:AA135"/>
-    <mergeCell ref="AF135:AM135"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="T140:AA140"/>
-    <mergeCell ref="AF140:AM140"/>
-    <mergeCell ref="B122:D122"/>
-    <mergeCell ref="T122:AA122"/>
-    <mergeCell ref="AF122:AM122"/>
-    <mergeCell ref="B128:D128"/>
-    <mergeCell ref="T128:AA128"/>
-    <mergeCell ref="AF128:AM128"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="T111:AA111"/>
-    <mergeCell ref="AF111:AM111"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="T116:AA116"/>
-    <mergeCell ref="AF116:AM116"/>
+    <mergeCell ref="T2:AA2"/>
+    <mergeCell ref="AF2:AM2"/>
+    <mergeCell ref="A1:AO1"/>
+    <mergeCell ref="T14:AA14"/>
+    <mergeCell ref="AF14:AM14"/>
+    <mergeCell ref="T19:AA19"/>
+    <mergeCell ref="AF19:AM19"/>
+    <mergeCell ref="T31:AA31"/>
+    <mergeCell ref="AF31:AM31"/>
+    <mergeCell ref="T43:AA43"/>
+    <mergeCell ref="AF43:AM43"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="T64:AA64"/>
+    <mergeCell ref="AF64:AM64"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="T78:AA78"/>
+    <mergeCell ref="AF78:AM78"/>
     <mergeCell ref="B104:D104"/>
     <mergeCell ref="T104:AA104"/>
     <mergeCell ref="AF104:AM104"/>
@@ -18337,28 +18345,36 @@
     <mergeCell ref="B99:D99"/>
     <mergeCell ref="T99:AA99"/>
     <mergeCell ref="AF99:AM99"/>
-    <mergeCell ref="T64:AA64"/>
-    <mergeCell ref="AF64:AM64"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="T78:AA78"/>
-    <mergeCell ref="AF78:AM78"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="T19:AA19"/>
-    <mergeCell ref="AF19:AM19"/>
-    <mergeCell ref="T31:AA31"/>
-    <mergeCell ref="AF31:AM31"/>
-    <mergeCell ref="T43:AA43"/>
-    <mergeCell ref="AF43:AM43"/>
-    <mergeCell ref="T2:AA2"/>
-    <mergeCell ref="AF2:AM2"/>
-    <mergeCell ref="A1:AO1"/>
-    <mergeCell ref="T14:AA14"/>
-    <mergeCell ref="AF14:AM14"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="T111:AA111"/>
+    <mergeCell ref="AF111:AM111"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="T116:AA116"/>
+    <mergeCell ref="AF116:AM116"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="T122:AA122"/>
+    <mergeCell ref="AF122:AM122"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="T128:AA128"/>
+    <mergeCell ref="AF128:AM128"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="T135:AA135"/>
+    <mergeCell ref="AF135:AM135"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="T140:AA140"/>
+    <mergeCell ref="AF140:AM140"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="T145:AA145"/>
+    <mergeCell ref="AF145:AM145"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="T150:AA150"/>
+    <mergeCell ref="AF150:AM150"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="T160:AA160"/>
+    <mergeCell ref="AF160:AM160"/>
+    <mergeCell ref="B155:D155"/>
+    <mergeCell ref="T155:AA155"/>
+    <mergeCell ref="AF155:AM155"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18388,7 +18404,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="104" t="s">
         <v>142</v>
       </c>
       <c r="B3" s="76" t="s">
@@ -18396,7 +18412,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="104" t="s">
         <v>143</v>
       </c>
       <c r="B4" s="76" t="s">
@@ -18404,7 +18420,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="104" t="s">
         <v>144</v>
       </c>
       <c r="B5" s="76" t="s">
@@ -18412,7 +18428,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="104" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="76" t="s">
@@ -18420,7 +18436,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="104" t="s">
         <v>146</v>
       </c>
       <c r="B7" s="76" t="s">
@@ -18428,7 +18444,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="104" t="s">
         <v>147</v>
       </c>
       <c r="B8" s="76" t="s">
@@ -18436,7 +18452,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="104" t="s">
         <v>148</v>
       </c>
       <c r="B9" s="76" t="s">
@@ -18444,7 +18460,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="114" t="s">
+      <c r="A10" s="104" t="s">
         <v>170</v>
       </c>
       <c r="B10" s="76" t="s">
@@ -18452,7 +18468,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="114" t="s">
+      <c r="A11" s="104" t="s">
         <v>169</v>
       </c>
       <c r="B11" s="76" t="s">
@@ -18460,7 +18476,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="114" t="s">
+      <c r="A12" s="104" t="s">
         <v>168</v>
       </c>
       <c r="B12" s="76" t="s">
@@ -18468,7 +18484,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="114" t="s">
+      <c r="A13" s="104" t="s">
         <v>167</v>
       </c>
       <c r="B13" s="76" t="s">
@@ -18476,7 +18492,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="114" t="s">
+      <c r="A14" s="104" t="s">
         <v>163</v>
       </c>
       <c r="B14" s="76" t="s">
@@ -18484,7 +18500,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="114" t="s">
+      <c r="A15" s="104" t="s">
         <v>166</v>
       </c>
       <c r="B15" s="76" t="s">
@@ -18492,7 +18508,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="104" t="s">
         <v>165</v>
       </c>
       <c r="B16" s="76" t="s">
@@ -18500,7 +18516,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="114" t="s">
+      <c r="A17" s="104" t="s">
         <v>164</v>
       </c>
       <c r="B17" s="76" t="s">
@@ -18508,7 +18524,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="114"/>
+      <c r="A18" s="104"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/SOFTWARE/Z80 CPU Tester 1.1/Results Z80 CPU Tester.xlsx
+++ b/SOFTWARE/Z80 CPU Tester 1.1/Results Z80 CPU Tester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eigene Dateien\PROG Z80\Z80 CPU Tester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F52E3C-DAD1-47EE-AC3F-E5EAF491E5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F8137A-B67E-42A3-BA55-B5BFA22C6261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1320" yWindow="1890" windowWidth="30120" windowHeight="18450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2075,8 +2075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="H187" sqref="H187"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2097,7 +2097,8 @@
     <col min="20" max="20" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="28" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="33" max="40" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="5.7109375" style="76" bestFit="1" customWidth="1"/>
@@ -2205,10 +2206,10 @@
       <c r="AB2" s="114"/>
       <c r="AC2" s="61"/>
       <c r="AD2" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE2" s="99" t="s">
         <v>122</v>
-      </c>
-      <c r="AE2" s="99" t="s">
-        <v>123</v>
       </c>
       <c r="AF2" s="64"/>
       <c r="AG2" s="115" t="s">
@@ -3421,10 +3422,10 @@
         <v>108</v>
       </c>
       <c r="AD12" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE12" s="28" t="s">
         <v>117</v>
-      </c>
-      <c r="AE12" s="28" t="s">
-        <v>118</v>
       </c>
       <c r="AF12" s="28"/>
       <c r="AG12" s="22">
@@ -3526,10 +3527,10 @@
       <c r="AB14" s="121"/>
       <c r="AC14" s="57"/>
       <c r="AD14" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE14" s="99" t="s">
         <v>122</v>
-      </c>
-      <c r="AE14" s="99" t="s">
-        <v>123</v>
       </c>
       <c r="AF14" s="64"/>
       <c r="AG14" s="115" t="s">
@@ -3976,10 +3977,10 @@
       <c r="AB19" s="121"/>
       <c r="AC19" s="57"/>
       <c r="AD19" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE19" s="99" t="s">
         <v>122</v>
-      </c>
-      <c r="AE19" s="99" t="s">
-        <v>123</v>
       </c>
       <c r="AF19" s="64"/>
       <c r="AG19" s="115" t="s">
@@ -5301,10 +5302,10 @@
       <c r="AB31" s="114"/>
       <c r="AC31" s="61"/>
       <c r="AD31" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE31" s="99" t="s">
         <v>122</v>
-      </c>
-      <c r="AE31" s="99" t="s">
-        <v>123</v>
       </c>
       <c r="AF31" s="64"/>
       <c r="AG31" s="115" t="s">
@@ -6548,10 +6549,10 @@
       <c r="AB43" s="114"/>
       <c r="AC43" s="61"/>
       <c r="AD43" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE43" s="99" t="s">
         <v>122</v>
-      </c>
-      <c r="AE43" s="99" t="s">
-        <v>123</v>
       </c>
       <c r="AF43" s="64"/>
       <c r="AG43" s="115" t="s">
@@ -9182,10 +9183,10 @@
       <c r="AB66" s="114"/>
       <c r="AC66" s="61"/>
       <c r="AD66" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE66" s="99" t="s">
         <v>122</v>
-      </c>
-      <c r="AE66" s="99" t="s">
-        <v>123</v>
       </c>
       <c r="AF66" s="64"/>
       <c r="AG66" s="115" t="s">
@@ -10834,10 +10835,10 @@
       <c r="AB81" s="114"/>
       <c r="AC81" s="61"/>
       <c r="AD81" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE81" s="99" t="s">
         <v>122</v>
-      </c>
-      <c r="AE81" s="99" t="s">
-        <v>123</v>
       </c>
       <c r="AF81" s="64"/>
       <c r="AG81" s="115" t="s">
@@ -12323,10 +12324,10 @@
       <c r="AB97" s="114"/>
       <c r="AC97" s="61"/>
       <c r="AD97" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE97" s="99" t="s">
         <v>122</v>
-      </c>
-      <c r="AE97" s="99" t="s">
-        <v>123</v>
       </c>
       <c r="AF97" s="64"/>
       <c r="AG97" s="115" t="s">
@@ -13022,10 +13023,10 @@
       <c r="AB105" s="114"/>
       <c r="AC105" s="61"/>
       <c r="AD105" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE105" s="99" t="s">
         <v>122</v>
-      </c>
-      <c r="AE105" s="99" t="s">
-        <v>123</v>
       </c>
       <c r="AF105" s="64"/>
       <c r="AG105" s="115" t="s">
@@ -13338,10 +13339,10 @@
       <c r="AB110" s="114"/>
       <c r="AC110" s="61"/>
       <c r="AD110" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE110" s="99" t="s">
         <v>122</v>
-      </c>
-      <c r="AE110" s="99" t="s">
-        <v>123</v>
       </c>
       <c r="AF110" s="64"/>
       <c r="AG110" s="115" t="s">
@@ -14239,10 +14240,10 @@
       <c r="AB120" s="114"/>
       <c r="AC120" s="61"/>
       <c r="AD120" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE120" s="99" t="s">
         <v>122</v>
-      </c>
-      <c r="AE120" s="99" t="s">
-        <v>123</v>
       </c>
       <c r="AF120" s="64"/>
       <c r="AG120" s="115" t="s">
@@ -14555,10 +14556,10 @@
       <c r="AB125" s="114"/>
       <c r="AC125" s="61"/>
       <c r="AD125" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE125" s="99" t="s">
         <v>122</v>
-      </c>
-      <c r="AE125" s="99" t="s">
-        <v>123</v>
       </c>
       <c r="AF125" s="64"/>
       <c r="AG125" s="115" t="s">
@@ -14976,10 +14977,10 @@
       <c r="AB131" s="114"/>
       <c r="AC131" s="61"/>
       <c r="AD131" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE131" s="99" t="s">
         <v>122</v>
-      </c>
-      <c r="AE131" s="99" t="s">
-        <v>123</v>
       </c>
       <c r="AF131" s="64"/>
       <c r="AG131" s="115" t="s">
@@ -15399,10 +15400,10 @@
       <c r="AB137" s="114"/>
       <c r="AC137" s="61"/>
       <c r="AD137" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE137" s="99" t="s">
         <v>122</v>
-      </c>
-      <c r="AE137" s="99" t="s">
-        <v>123</v>
       </c>
       <c r="AF137" s="64"/>
       <c r="AG137" s="115" t="s">
@@ -15925,10 +15926,10 @@
       <c r="AB144" s="114"/>
       <c r="AC144" s="61"/>
       <c r="AD144" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE144" s="99" t="s">
         <v>122</v>
-      </c>
-      <c r="AE144" s="99" t="s">
-        <v>123</v>
       </c>
       <c r="AF144" s="64"/>
       <c r="AG144" s="115" t="s">
@@ -16241,10 +16242,10 @@
       <c r="AB149" s="114"/>
       <c r="AC149" s="61"/>
       <c r="AD149" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE149" s="99" t="s">
         <v>122</v>
-      </c>
-      <c r="AE149" s="99" t="s">
-        <v>123</v>
       </c>
       <c r="AF149" s="64"/>
       <c r="AG149" s="115" t="s">
@@ -16557,10 +16558,10 @@
       <c r="AB154" s="114"/>
       <c r="AC154" s="61"/>
       <c r="AD154" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE154" s="99" t="s">
         <v>122</v>
-      </c>
-      <c r="AE154" s="99" t="s">
-        <v>123</v>
       </c>
       <c r="AF154" s="64"/>
       <c r="AG154" s="115" t="s">
@@ -16873,10 +16874,10 @@
       <c r="AB159" s="114"/>
       <c r="AC159" s="61"/>
       <c r="AD159" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE159" s="99" t="s">
         <v>122</v>
-      </c>
-      <c r="AE159" s="99" t="s">
-        <v>123</v>
       </c>
       <c r="AF159" s="64"/>
       <c r="AG159" s="115" t="s">
@@ -17189,10 +17190,10 @@
       <c r="AB164" s="114"/>
       <c r="AC164" s="61"/>
       <c r="AD164" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE164" s="99" t="s">
         <v>122</v>
-      </c>
-      <c r="AE164" s="99" t="s">
-        <v>123</v>
       </c>
       <c r="AF164" s="64"/>
       <c r="AG164" s="115" t="s">
@@ -17597,10 +17598,10 @@
       <c r="AB169" s="114"/>
       <c r="AC169" s="61"/>
       <c r="AD169" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE169" s="99" t="s">
         <v>122</v>
-      </c>
-      <c r="AE169" s="99" t="s">
-        <v>123</v>
       </c>
       <c r="AF169" s="64"/>
       <c r="AG169" s="115" t="s">
@@ -18364,10 +18365,10 @@
         <v>132</v>
       </c>
       <c r="AD176" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE176" s="28" t="s">
         <v>208</v>
-      </c>
-      <c r="AE176" s="28" t="s">
-        <v>207</v>
       </c>
       <c r="AF176" s="28"/>
       <c r="AG176" s="22">
@@ -18493,10 +18494,10 @@
         <v>212</v>
       </c>
       <c r="AD177" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="AE177" s="28" t="s">
         <v>211</v>
-      </c>
-      <c r="AE177" s="28" t="s">
-        <v>210</v>
       </c>
       <c r="AF177" s="28"/>
       <c r="AG177" s="22">
@@ -18594,10 +18595,10 @@
       <c r="AB179" s="114"/>
       <c r="AC179" s="61"/>
       <c r="AD179" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE179" s="99" t="s">
         <v>122</v>
-      </c>
-      <c r="AE179" s="99" t="s">
-        <v>123</v>
       </c>
       <c r="AF179" s="64"/>
       <c r="AG179" s="115" t="s">
@@ -18818,10 +18819,10 @@
         <v>233</v>
       </c>
       <c r="AD181" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE181" s="28" t="s">
         <v>117</v>
-      </c>
-      <c r="AE181" s="28" t="s">
-        <v>234</v>
       </c>
       <c r="AF181" s="28"/>
       <c r="AG181" s="22">
@@ -18946,10 +18947,10 @@
         <v>233</v>
       </c>
       <c r="AD182" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE182" s="28" t="s">
         <v>117</v>
-      </c>
-      <c r="AE182" s="28" t="s">
-        <v>235</v>
       </c>
       <c r="AF182" s="28"/>
       <c r="AG182" s="22">
@@ -19074,10 +19075,10 @@
         <v>233</v>
       </c>
       <c r="AD183" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE183" s="28" t="s">
         <v>117</v>
-      </c>
-      <c r="AE183" s="28" t="s">
-        <v>236</v>
       </c>
       <c r="AF183" s="28"/>
       <c r="AG183" s="22">
@@ -19201,11 +19202,11 @@
       <c r="AC184" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="AD184" s="28" t="s">
+      <c r="AD184" s="28">
+        <v>8000</v>
+      </c>
+      <c r="AE184" s="28" t="s">
         <v>117</v>
-      </c>
-      <c r="AE184" s="28">
-        <v>8000</v>
       </c>
       <c r="AF184" s="28"/>
       <c r="AG184" s="22">
@@ -20456,54 +20457,6 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="U169:AB169"/>
-    <mergeCell ref="AG169:AN169"/>
-    <mergeCell ref="B164:D164"/>
-    <mergeCell ref="U164:AB164"/>
-    <mergeCell ref="AG164:AN164"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="U154:AB154"/>
-    <mergeCell ref="AG154:AN154"/>
-    <mergeCell ref="B159:D159"/>
-    <mergeCell ref="U159:AB159"/>
-    <mergeCell ref="AG159:AN159"/>
-    <mergeCell ref="B144:D144"/>
-    <mergeCell ref="U144:AB144"/>
-    <mergeCell ref="AG144:AN144"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="U149:AB149"/>
-    <mergeCell ref="AG149:AN149"/>
-    <mergeCell ref="B131:D131"/>
-    <mergeCell ref="U131:AB131"/>
-    <mergeCell ref="AG131:AN131"/>
-    <mergeCell ref="B137:D137"/>
-    <mergeCell ref="U137:AB137"/>
-    <mergeCell ref="AG137:AN137"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="U120:AB120"/>
-    <mergeCell ref="AG120:AN120"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="U125:AB125"/>
-    <mergeCell ref="AG125:AN125"/>
-    <mergeCell ref="AG81:AN81"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="U110:AB110"/>
-    <mergeCell ref="AG110:AN110"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="U97:AB97"/>
-    <mergeCell ref="AG97:AN97"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="U105:AB105"/>
-    <mergeCell ref="AG105:AN105"/>
-    <mergeCell ref="A1:AP1"/>
-    <mergeCell ref="U14:AB14"/>
-    <mergeCell ref="AG14:AN14"/>
-    <mergeCell ref="U19:AB19"/>
-    <mergeCell ref="AG19:AN19"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B2:C2"/>
     <mergeCell ref="B179:C179"/>
     <mergeCell ref="U179:AB179"/>
     <mergeCell ref="AG179:AN179"/>
@@ -20520,6 +20473,54 @@
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B81:D81"/>
     <mergeCell ref="U81:AB81"/>
+    <mergeCell ref="A1:AP1"/>
+    <mergeCell ref="U14:AB14"/>
+    <mergeCell ref="AG14:AN14"/>
+    <mergeCell ref="U19:AB19"/>
+    <mergeCell ref="AG19:AN19"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="AG81:AN81"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="U110:AB110"/>
+    <mergeCell ref="AG110:AN110"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="U97:AB97"/>
+    <mergeCell ref="AG97:AN97"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="U105:AB105"/>
+    <mergeCell ref="AG105:AN105"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="U120:AB120"/>
+    <mergeCell ref="AG120:AN120"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="U125:AB125"/>
+    <mergeCell ref="AG125:AN125"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="U131:AB131"/>
+    <mergeCell ref="AG131:AN131"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="U137:AB137"/>
+    <mergeCell ref="AG137:AN137"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="U144:AB144"/>
+    <mergeCell ref="AG144:AN144"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="U149:AB149"/>
+    <mergeCell ref="AG149:AN149"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="U154:AB154"/>
+    <mergeCell ref="AG154:AN154"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="U159:AB159"/>
+    <mergeCell ref="AG159:AN159"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="U169:AB169"/>
+    <mergeCell ref="AG169:AN169"/>
+    <mergeCell ref="B164:D164"/>
+    <mergeCell ref="U164:AB164"/>
+    <mergeCell ref="AG164:AN164"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/SOFTWARE/Z80 CPU Tester 1.1/Results Z80 CPU Tester.xlsx
+++ b/SOFTWARE/Z80 CPU Tester 1.1/Results Z80 CPU Tester.xlsx
@@ -2,13 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eigene Dateien\PROG Z80\Z80 CPU Tester\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC32CD1E-B9BC-404F-8398-FDD9DBA72B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCD6C4F-285F-4DF4-B1D7-DD887B6EE110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28185" yWindow="2250" windowWidth="30120" windowHeight="18450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22323,6 +22318,55 @@
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="U183:AB183"/>
+    <mergeCell ref="AG183:AN183"/>
+    <mergeCell ref="B178:D178"/>
+    <mergeCell ref="U178:AB178"/>
+    <mergeCell ref="AG178:AN178"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="U168:AB168"/>
+    <mergeCell ref="AG168:AN168"/>
+    <mergeCell ref="B173:D173"/>
+    <mergeCell ref="U173:AB173"/>
+    <mergeCell ref="AG173:AN173"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="U158:AB158"/>
+    <mergeCell ref="AG158:AN158"/>
+    <mergeCell ref="B163:D163"/>
+    <mergeCell ref="U163:AB163"/>
+    <mergeCell ref="AG163:AN163"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="U141:AB141"/>
+    <mergeCell ref="AG141:AN141"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="U150:AB150"/>
+    <mergeCell ref="AG150:AN150"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="U130:AB130"/>
+    <mergeCell ref="AG130:AN130"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="U135:AB135"/>
+    <mergeCell ref="AG135:AN135"/>
+    <mergeCell ref="AG89:AN89"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="U120:AB120"/>
+    <mergeCell ref="AG120:AN120"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="U103:AB103"/>
+    <mergeCell ref="AG103:AN103"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="U111:AB111"/>
+    <mergeCell ref="AG111:AN111"/>
+    <mergeCell ref="A1:AP1"/>
+    <mergeCell ref="U16:AB16"/>
+    <mergeCell ref="AG16:AN16"/>
+    <mergeCell ref="U22:AB22"/>
+    <mergeCell ref="AG22:AN22"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A2:C2"/>
     <mergeCell ref="B193:C193"/>
     <mergeCell ref="U193:AB193"/>
     <mergeCell ref="AG193:AN193"/>
@@ -22339,55 +22383,6 @@
     <mergeCell ref="B73:D73"/>
     <mergeCell ref="B89:D89"/>
     <mergeCell ref="U89:AB89"/>
-    <mergeCell ref="A1:AP1"/>
-    <mergeCell ref="U16:AB16"/>
-    <mergeCell ref="AG16:AN16"/>
-    <mergeCell ref="U22:AB22"/>
-    <mergeCell ref="AG22:AN22"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="AG89:AN89"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="U120:AB120"/>
-    <mergeCell ref="AG120:AN120"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="U103:AB103"/>
-    <mergeCell ref="AG103:AN103"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="U111:AB111"/>
-    <mergeCell ref="AG111:AN111"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="U130:AB130"/>
-    <mergeCell ref="AG130:AN130"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="U135:AB135"/>
-    <mergeCell ref="AG135:AN135"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="U141:AB141"/>
-    <mergeCell ref="AG141:AN141"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="U150:AB150"/>
-    <mergeCell ref="AG150:AN150"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="U158:AB158"/>
-    <mergeCell ref="AG158:AN158"/>
-    <mergeCell ref="B163:D163"/>
-    <mergeCell ref="U163:AB163"/>
-    <mergeCell ref="AG163:AN163"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="U168:AB168"/>
-    <mergeCell ref="AG168:AN168"/>
-    <mergeCell ref="B173:D173"/>
-    <mergeCell ref="U173:AB173"/>
-    <mergeCell ref="AG173:AN173"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="U183:AB183"/>
-    <mergeCell ref="AG183:AN183"/>
-    <mergeCell ref="B178:D178"/>
-    <mergeCell ref="U178:AB178"/>
-    <mergeCell ref="AG178:AN178"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22541,5 +22536,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SOFTWARE/Z80 CPU Tester 1.1/Results Z80 CPU Tester.xlsx
+++ b/SOFTWARE/Z80 CPU Tester 1.1/Results Z80 CPU Tester.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C77CB36-9CF6-4C0F-9C15-A9187C9677F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746E20CB-6FBF-4D1C-B9BC-F764D7D22FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="2055" windowWidth="35205" windowHeight="18450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2135,6 +2135,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2172,12 +2178,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2496,7 +2496,7 @@
   <dimension ref="A1:AR373"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G126" sqref="G126"/>
+      <selection activeCell="AN131" sqref="AN131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2530,60 +2530,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="1" customFormat="1" ht="19.5" thickBot="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="167" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="166"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="166"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="166"/>
-      <c r="T1" s="166"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="166"/>
-      <c r="X1" s="166"/>
-      <c r="Y1" s="166"/>
-      <c r="Z1" s="166"/>
-      <c r="AA1" s="166"/>
-      <c r="AB1" s="166"/>
-      <c r="AC1" s="166"/>
-      <c r="AD1" s="166"/>
-      <c r="AE1" s="166"/>
-      <c r="AF1" s="166"/>
-      <c r="AG1" s="166"/>
-      <c r="AH1" s="166"/>
-      <c r="AI1" s="166"/>
-      <c r="AJ1" s="166"/>
-      <c r="AK1" s="166"/>
-      <c r="AL1" s="166"/>
-      <c r="AM1" s="166"/>
-      <c r="AN1" s="166"/>
-      <c r="AO1" s="166"/>
-      <c r="AP1" s="167"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
+      <c r="X1" s="168"/>
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="168"/>
+      <c r="AA1" s="168"/>
+      <c r="AB1" s="168"/>
+      <c r="AC1" s="168"/>
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
+      <c r="AF1" s="168"/>
+      <c r="AG1" s="168"/>
+      <c r="AH1" s="168"/>
+      <c r="AI1" s="168"/>
+      <c r="AJ1" s="168"/>
+      <c r="AK1" s="168"/>
+      <c r="AL1" s="168"/>
+      <c r="AM1" s="168"/>
+      <c r="AN1" s="168"/>
+      <c r="AO1" s="168"/>
+      <c r="AP1" s="169"/>
       <c r="AQ1" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:44" s="1" customFormat="1" ht="24" thickBot="1">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="172" t="s">
         <v>294</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="172"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="174"/>
       <c r="D2" s="155" t="s">
         <v>280</v>
       </c>
@@ -2628,10 +2628,10 @@
     </row>
     <row r="3" spans="1:44" ht="19.5" thickBot="1">
       <c r="A3" s="40"/>
-      <c r="B3" s="160" t="s">
+      <c r="B3" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="160"/>
+      <c r="C3" s="162"/>
       <c r="D3" s="41"/>
       <c r="E3" s="42"/>
       <c r="F3" s="42"/>
@@ -2667,16 +2667,16 @@
         <v>103</v>
       </c>
       <c r="T3" s="50"/>
-      <c r="U3" s="161" t="s">
+      <c r="U3" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="V3" s="162"/>
-      <c r="W3" s="162"/>
-      <c r="X3" s="162"/>
-      <c r="Y3" s="162"/>
-      <c r="Z3" s="162"/>
-      <c r="AA3" s="162"/>
-      <c r="AB3" s="162"/>
+      <c r="V3" s="164"/>
+      <c r="W3" s="164"/>
+      <c r="X3" s="164"/>
+      <c r="Y3" s="164"/>
+      <c r="Z3" s="164"/>
+      <c r="AA3" s="164"/>
+      <c r="AB3" s="164"/>
       <c r="AC3" s="55"/>
       <c r="AD3" s="88" t="s">
         <v>123</v>
@@ -2685,16 +2685,16 @@
         <v>122</v>
       </c>
       <c r="AF3" s="57"/>
-      <c r="AG3" s="163" t="s">
+      <c r="AG3" s="165" t="s">
         <v>109</v>
       </c>
-      <c r="AH3" s="164"/>
-      <c r="AI3" s="164"/>
-      <c r="AJ3" s="164"/>
-      <c r="AK3" s="164"/>
-      <c r="AL3" s="164"/>
-      <c r="AM3" s="164"/>
-      <c r="AN3" s="164"/>
+      <c r="AH3" s="166"/>
+      <c r="AI3" s="166"/>
+      <c r="AJ3" s="166"/>
+      <c r="AK3" s="166"/>
+      <c r="AL3" s="166"/>
+      <c r="AM3" s="166"/>
+      <c r="AN3" s="166"/>
       <c r="AO3" s="58"/>
       <c r="AP3" s="89" t="s">
         <v>124</v>
@@ -3958,10 +3958,10 @@
     </row>
     <row r="16" spans="1:44" ht="19.5" thickBot="1">
       <c r="A16" s="40"/>
-      <c r="B16" s="160" t="s">
+      <c r="B16" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="160"/>
+      <c r="C16" s="162"/>
       <c r="D16" s="41"/>
       <c r="E16" s="42"/>
       <c r="F16" s="42"/>
@@ -3997,16 +3997,16 @@
         <v>103</v>
       </c>
       <c r="T16" s="10"/>
-      <c r="U16" s="168" t="s">
+      <c r="U16" s="170" t="s">
         <v>104</v>
       </c>
-      <c r="V16" s="169"/>
-      <c r="W16" s="169"/>
-      <c r="X16" s="169"/>
-      <c r="Y16" s="169"/>
-      <c r="Z16" s="169"/>
-      <c r="AA16" s="169"/>
-      <c r="AB16" s="169"/>
+      <c r="V16" s="171"/>
+      <c r="W16" s="171"/>
+      <c r="X16" s="171"/>
+      <c r="Y16" s="171"/>
+      <c r="Z16" s="171"/>
+      <c r="AA16" s="171"/>
+      <c r="AB16" s="171"/>
       <c r="AC16" s="52"/>
       <c r="AD16" s="88" t="s">
         <v>123</v>
@@ -4015,16 +4015,16 @@
         <v>122</v>
       </c>
       <c r="AF16" s="57"/>
-      <c r="AG16" s="163" t="s">
+      <c r="AG16" s="165" t="s">
         <v>109</v>
       </c>
-      <c r="AH16" s="164"/>
-      <c r="AI16" s="164"/>
-      <c r="AJ16" s="164"/>
-      <c r="AK16" s="164"/>
-      <c r="AL16" s="164"/>
-      <c r="AM16" s="164"/>
-      <c r="AN16" s="164"/>
+      <c r="AH16" s="166"/>
+      <c r="AI16" s="166"/>
+      <c r="AJ16" s="166"/>
+      <c r="AK16" s="166"/>
+      <c r="AL16" s="166"/>
+      <c r="AM16" s="166"/>
+      <c r="AN16" s="166"/>
       <c r="AO16" s="58"/>
       <c r="AP16" s="89" t="s">
         <v>124</v>
@@ -4417,10 +4417,10 @@
     </row>
     <row r="22" spans="1:44" ht="19.5" thickBot="1">
       <c r="A22" s="40"/>
-      <c r="B22" s="160" t="s">
+      <c r="B22" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="160"/>
+      <c r="C22" s="162"/>
       <c r="D22" s="41"/>
       <c r="E22" s="42"/>
       <c r="F22" s="42"/>
@@ -4456,16 +4456,16 @@
         <v>103</v>
       </c>
       <c r="T22" s="10"/>
-      <c r="U22" s="168" t="s">
+      <c r="U22" s="170" t="s">
         <v>104</v>
       </c>
-      <c r="V22" s="169"/>
-      <c r="W22" s="169"/>
-      <c r="X22" s="169"/>
-      <c r="Y22" s="169"/>
-      <c r="Z22" s="169"/>
-      <c r="AA22" s="169"/>
-      <c r="AB22" s="169"/>
+      <c r="V22" s="171"/>
+      <c r="W22" s="171"/>
+      <c r="X22" s="171"/>
+      <c r="Y22" s="171"/>
+      <c r="Z22" s="171"/>
+      <c r="AA22" s="171"/>
+      <c r="AB22" s="171"/>
       <c r="AC22" s="52"/>
       <c r="AD22" s="88" t="s">
         <v>123</v>
@@ -4474,16 +4474,16 @@
         <v>122</v>
       </c>
       <c r="AF22" s="57"/>
-      <c r="AG22" s="163" t="s">
+      <c r="AG22" s="165" t="s">
         <v>109</v>
       </c>
-      <c r="AH22" s="164"/>
-      <c r="AI22" s="164"/>
-      <c r="AJ22" s="164"/>
-      <c r="AK22" s="164"/>
-      <c r="AL22" s="164"/>
-      <c r="AM22" s="164"/>
-      <c r="AN22" s="164"/>
+      <c r="AH22" s="166"/>
+      <c r="AI22" s="166"/>
+      <c r="AJ22" s="166"/>
+      <c r="AK22" s="166"/>
+      <c r="AL22" s="166"/>
+      <c r="AM22" s="166"/>
+      <c r="AN22" s="166"/>
       <c r="AO22" s="58"/>
       <c r="AP22" s="89" t="s">
         <v>124</v>
@@ -5876,10 +5876,10 @@
     </row>
     <row r="36" spans="1:44" ht="19.5" thickBot="1">
       <c r="A36" s="40"/>
-      <c r="B36" s="160" t="s">
+      <c r="B36" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="160"/>
+      <c r="C36" s="162"/>
       <c r="D36" s="41"/>
       <c r="E36" s="42"/>
       <c r="F36" s="42"/>
@@ -5915,16 +5915,16 @@
         <v>103</v>
       </c>
       <c r="T36" s="50"/>
-      <c r="U36" s="161" t="s">
+      <c r="U36" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="V36" s="162"/>
-      <c r="W36" s="162"/>
-      <c r="X36" s="162"/>
-      <c r="Y36" s="162"/>
-      <c r="Z36" s="162"/>
-      <c r="AA36" s="162"/>
-      <c r="AB36" s="162"/>
+      <c r="V36" s="164"/>
+      <c r="W36" s="164"/>
+      <c r="X36" s="164"/>
+      <c r="Y36" s="164"/>
+      <c r="Z36" s="164"/>
+      <c r="AA36" s="164"/>
+      <c r="AB36" s="164"/>
       <c r="AC36" s="55"/>
       <c r="AD36" s="88" t="s">
         <v>123</v>
@@ -5933,16 +5933,16 @@
         <v>122</v>
       </c>
       <c r="AF36" s="57"/>
-      <c r="AG36" s="163" t="s">
+      <c r="AG36" s="165" t="s">
         <v>109</v>
       </c>
-      <c r="AH36" s="164"/>
-      <c r="AI36" s="164"/>
-      <c r="AJ36" s="164"/>
-      <c r="AK36" s="164"/>
-      <c r="AL36" s="164"/>
-      <c r="AM36" s="164"/>
-      <c r="AN36" s="164"/>
+      <c r="AH36" s="166"/>
+      <c r="AI36" s="166"/>
+      <c r="AJ36" s="166"/>
+      <c r="AK36" s="166"/>
+      <c r="AL36" s="166"/>
+      <c r="AM36" s="166"/>
+      <c r="AN36" s="166"/>
       <c r="AO36" s="58"/>
       <c r="AP36" s="89" t="s">
         <v>124</v>
@@ -7321,10 +7321,10 @@
     </row>
     <row r="50" spans="1:44" ht="19.5" thickBot="1">
       <c r="A50" s="40"/>
-      <c r="B50" s="160" t="s">
+      <c r="B50" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="C50" s="160"/>
+      <c r="C50" s="162"/>
       <c r="D50" s="41"/>
       <c r="E50" s="42"/>
       <c r="F50" s="42"/>
@@ -7360,16 +7360,16 @@
         <v>103</v>
       </c>
       <c r="T50" s="50"/>
-      <c r="U50" s="161" t="s">
+      <c r="U50" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="V50" s="162"/>
-      <c r="W50" s="162"/>
-      <c r="X50" s="162"/>
-      <c r="Y50" s="162"/>
-      <c r="Z50" s="162"/>
-      <c r="AA50" s="162"/>
-      <c r="AB50" s="162"/>
+      <c r="V50" s="164"/>
+      <c r="W50" s="164"/>
+      <c r="X50" s="164"/>
+      <c r="Y50" s="164"/>
+      <c r="Z50" s="164"/>
+      <c r="AA50" s="164"/>
+      <c r="AB50" s="164"/>
       <c r="AC50" s="55"/>
       <c r="AD50" s="88" t="s">
         <v>123</v>
@@ -7378,16 +7378,16 @@
         <v>122</v>
       </c>
       <c r="AF50" s="57"/>
-      <c r="AG50" s="163" t="s">
+      <c r="AG50" s="165" t="s">
         <v>109</v>
       </c>
-      <c r="AH50" s="164"/>
-      <c r="AI50" s="164"/>
-      <c r="AJ50" s="164"/>
-      <c r="AK50" s="164"/>
-      <c r="AL50" s="164"/>
-      <c r="AM50" s="164"/>
-      <c r="AN50" s="164"/>
+      <c r="AH50" s="166"/>
+      <c r="AI50" s="166"/>
+      <c r="AJ50" s="166"/>
+      <c r="AK50" s="166"/>
+      <c r="AL50" s="166"/>
+      <c r="AM50" s="166"/>
+      <c r="AN50" s="166"/>
       <c r="AO50" s="58"/>
       <c r="AP50" s="89" t="s">
         <v>124</v>
@@ -9964,11 +9964,11 @@
     </row>
     <row r="74" spans="1:44" ht="19.5" thickBot="1">
       <c r="A74" s="40"/>
-      <c r="B74" s="160" t="s">
+      <c r="B74" s="162" t="s">
         <v>53</v>
       </c>
-      <c r="C74" s="160"/>
-      <c r="D74" s="160"/>
+      <c r="C74" s="162"/>
+      <c r="D74" s="162"/>
       <c r="E74" s="42"/>
       <c r="F74" s="42"/>
       <c r="G74" s="42"/>
@@ -10003,16 +10003,16 @@
         <v>103</v>
       </c>
       <c r="T74" s="50"/>
-      <c r="U74" s="161" t="s">
+      <c r="U74" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="V74" s="162"/>
-      <c r="W74" s="162"/>
-      <c r="X74" s="162"/>
-      <c r="Y74" s="162"/>
-      <c r="Z74" s="162"/>
-      <c r="AA74" s="162"/>
-      <c r="AB74" s="162"/>
+      <c r="V74" s="164"/>
+      <c r="W74" s="164"/>
+      <c r="X74" s="164"/>
+      <c r="Y74" s="164"/>
+      <c r="Z74" s="164"/>
+      <c r="AA74" s="164"/>
+      <c r="AB74" s="164"/>
       <c r="AC74" s="55"/>
       <c r="AD74" s="88" t="s">
         <v>123</v>
@@ -10021,16 +10021,16 @@
         <v>122</v>
       </c>
       <c r="AF74" s="57"/>
-      <c r="AG74" s="163" t="s">
+      <c r="AG74" s="165" t="s">
         <v>109</v>
       </c>
-      <c r="AH74" s="164"/>
-      <c r="AI74" s="164"/>
-      <c r="AJ74" s="164"/>
-      <c r="AK74" s="164"/>
-      <c r="AL74" s="164"/>
-      <c r="AM74" s="164"/>
-      <c r="AN74" s="164"/>
+      <c r="AH74" s="166"/>
+      <c r="AI74" s="166"/>
+      <c r="AJ74" s="166"/>
+      <c r="AK74" s="166"/>
+      <c r="AL74" s="166"/>
+      <c r="AM74" s="166"/>
+      <c r="AN74" s="166"/>
       <c r="AO74" s="58"/>
       <c r="AP74" s="89" t="s">
         <v>124</v>
@@ -11625,11 +11625,11 @@
     </row>
     <row r="90" spans="1:44" ht="19.5" thickBot="1">
       <c r="A90" s="40"/>
-      <c r="B90" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="C90" s="160"/>
-      <c r="D90" s="160"/>
+      <c r="B90" s="162" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="162"/>
+      <c r="D90" s="162"/>
       <c r="E90" s="42"/>
       <c r="F90" s="42"/>
       <c r="G90" s="42"/>
@@ -11664,16 +11664,16 @@
         <v>103</v>
       </c>
       <c r="T90" s="50"/>
-      <c r="U90" s="161" t="s">
+      <c r="U90" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="V90" s="162"/>
-      <c r="W90" s="162"/>
-      <c r="X90" s="162"/>
-      <c r="Y90" s="162"/>
-      <c r="Z90" s="162"/>
-      <c r="AA90" s="162"/>
-      <c r="AB90" s="162"/>
+      <c r="V90" s="164"/>
+      <c r="W90" s="164"/>
+      <c r="X90" s="164"/>
+      <c r="Y90" s="164"/>
+      <c r="Z90" s="164"/>
+      <c r="AA90" s="164"/>
+      <c r="AB90" s="164"/>
       <c r="AC90" s="55"/>
       <c r="AD90" s="88" t="s">
         <v>123</v>
@@ -11682,16 +11682,16 @@
         <v>122</v>
       </c>
       <c r="AF90" s="57"/>
-      <c r="AG90" s="163" t="s">
+      <c r="AG90" s="165" t="s">
         <v>109</v>
       </c>
-      <c r="AH90" s="164"/>
-      <c r="AI90" s="164"/>
-      <c r="AJ90" s="164"/>
-      <c r="AK90" s="164"/>
-      <c r="AL90" s="164"/>
-      <c r="AM90" s="164"/>
-      <c r="AN90" s="164"/>
+      <c r="AH90" s="166"/>
+      <c r="AI90" s="166"/>
+      <c r="AJ90" s="166"/>
+      <c r="AK90" s="166"/>
+      <c r="AL90" s="166"/>
+      <c r="AM90" s="166"/>
+      <c r="AN90" s="166"/>
       <c r="AO90" s="58"/>
       <c r="AP90" s="89" t="s">
         <v>124</v>
@@ -13069,11 +13069,11 @@
     </row>
     <row r="104" spans="1:44" ht="19.5" thickBot="1">
       <c r="A104" s="40"/>
-      <c r="B104" s="160" t="s">
+      <c r="B104" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="C104" s="160"/>
-      <c r="D104" s="160"/>
+      <c r="C104" s="162"/>
+      <c r="D104" s="162"/>
       <c r="E104" s="42"/>
       <c r="F104" s="42"/>
       <c r="G104" s="42"/>
@@ -13108,16 +13108,16 @@
         <v>103</v>
       </c>
       <c r="T104" s="50"/>
-      <c r="U104" s="161" t="s">
+      <c r="U104" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="V104" s="162"/>
-      <c r="W104" s="162"/>
-      <c r="X104" s="162"/>
-      <c r="Y104" s="162"/>
-      <c r="Z104" s="162"/>
-      <c r="AA104" s="162"/>
-      <c r="AB104" s="162"/>
+      <c r="V104" s="164"/>
+      <c r="W104" s="164"/>
+      <c r="X104" s="164"/>
+      <c r="Y104" s="164"/>
+      <c r="Z104" s="164"/>
+      <c r="AA104" s="164"/>
+      <c r="AB104" s="164"/>
       <c r="AC104" s="55"/>
       <c r="AD104" s="88" t="s">
         <v>123</v>
@@ -13126,16 +13126,16 @@
         <v>122</v>
       </c>
       <c r="AF104" s="57"/>
-      <c r="AG104" s="163" t="s">
+      <c r="AG104" s="165" t="s">
         <v>109</v>
       </c>
-      <c r="AH104" s="164"/>
-      <c r="AI104" s="164"/>
-      <c r="AJ104" s="164"/>
-      <c r="AK104" s="164"/>
-      <c r="AL104" s="164"/>
-      <c r="AM104" s="164"/>
-      <c r="AN104" s="164"/>
+      <c r="AH104" s="166"/>
+      <c r="AI104" s="166"/>
+      <c r="AJ104" s="166"/>
+      <c r="AK104" s="166"/>
+      <c r="AL104" s="166"/>
+      <c r="AM104" s="166"/>
+      <c r="AN104" s="166"/>
       <c r="AO104" s="58"/>
       <c r="AP104" s="89" t="s">
         <v>124</v>
@@ -13774,11 +13774,11 @@
     </row>
     <row r="112" spans="1:44" ht="19.5" thickBot="1">
       <c r="A112" s="40"/>
-      <c r="B112" s="160" t="s">
+      <c r="B112" s="162" t="s">
         <v>82</v>
       </c>
-      <c r="C112" s="160"/>
-      <c r="D112" s="160"/>
+      <c r="C112" s="162"/>
+      <c r="D112" s="162"/>
       <c r="E112" s="42"/>
       <c r="F112" s="42"/>
       <c r="G112" s="42"/>
@@ -13813,16 +13813,16 @@
         <v>103</v>
       </c>
       <c r="T112" s="50"/>
-      <c r="U112" s="161" t="s">
+      <c r="U112" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="V112" s="162"/>
-      <c r="W112" s="162"/>
-      <c r="X112" s="162"/>
-      <c r="Y112" s="162"/>
-      <c r="Z112" s="162"/>
-      <c r="AA112" s="162"/>
-      <c r="AB112" s="162"/>
+      <c r="V112" s="164"/>
+      <c r="W112" s="164"/>
+      <c r="X112" s="164"/>
+      <c r="Y112" s="164"/>
+      <c r="Z112" s="164"/>
+      <c r="AA112" s="164"/>
+      <c r="AB112" s="164"/>
       <c r="AC112" s="55"/>
       <c r="AD112" s="88" t="s">
         <v>123</v>
@@ -13831,16 +13831,16 @@
         <v>122</v>
       </c>
       <c r="AF112" s="57"/>
-      <c r="AG112" s="163" t="s">
+      <c r="AG112" s="165" t="s">
         <v>109</v>
       </c>
-      <c r="AH112" s="164"/>
-      <c r="AI112" s="164"/>
-      <c r="AJ112" s="164"/>
-      <c r="AK112" s="164"/>
-      <c r="AL112" s="164"/>
-      <c r="AM112" s="164"/>
-      <c r="AN112" s="164"/>
+      <c r="AH112" s="166"/>
+      <c r="AI112" s="166"/>
+      <c r="AJ112" s="166"/>
+      <c r="AK112" s="166"/>
+      <c r="AL112" s="166"/>
+      <c r="AM112" s="166"/>
+      <c r="AN112" s="166"/>
       <c r="AO112" s="58"/>
       <c r="AP112" s="89" t="s">
         <v>124</v>
@@ -14278,10 +14278,10 @@
       <c r="AC116" s="108" t="s">
         <v>131</v>
       </c>
-      <c r="AD116" s="173" t="s">
+      <c r="AD116" s="160" t="s">
         <v>296</v>
       </c>
-      <c r="AE116" s="173" t="s">
+      <c r="AE116" s="160" t="s">
         <v>297</v>
       </c>
       <c r="AF116" s="28" t="s">
@@ -14422,7 +14422,7 @@
       <c r="AJ117" s="26">
         <v>0</v>
       </c>
-      <c r="AK117" s="174" t="s">
+      <c r="AK117" s="161" t="s">
         <v>301</v>
       </c>
       <c r="AL117" s="26">
@@ -14469,11 +14469,11 @@
     </row>
     <row r="120" spans="1:44" ht="19.5" thickBot="1">
       <c r="A120" s="40"/>
-      <c r="B120" s="160" t="s">
+      <c r="B120" s="162" t="s">
         <v>83</v>
       </c>
-      <c r="C120" s="160"/>
-      <c r="D120" s="160"/>
+      <c r="C120" s="162"/>
+      <c r="D120" s="162"/>
       <c r="E120" s="42"/>
       <c r="F120" s="42"/>
       <c r="G120" s="42"/>
@@ -14508,16 +14508,16 @@
         <v>103</v>
       </c>
       <c r="T120" s="50"/>
-      <c r="U120" s="161" t="s">
+      <c r="U120" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="V120" s="162"/>
-      <c r="W120" s="162"/>
-      <c r="X120" s="162"/>
-      <c r="Y120" s="162"/>
-      <c r="Z120" s="162"/>
-      <c r="AA120" s="162"/>
-      <c r="AB120" s="162"/>
+      <c r="V120" s="164"/>
+      <c r="W120" s="164"/>
+      <c r="X120" s="164"/>
+      <c r="Y120" s="164"/>
+      <c r="Z120" s="164"/>
+      <c r="AA120" s="164"/>
+      <c r="AB120" s="164"/>
       <c r="AC120" s="55"/>
       <c r="AD120" s="88" t="s">
         <v>123</v>
@@ -14526,16 +14526,16 @@
         <v>122</v>
       </c>
       <c r="AF120" s="57"/>
-      <c r="AG120" s="163" t="s">
+      <c r="AG120" s="165" t="s">
         <v>109</v>
       </c>
-      <c r="AH120" s="164"/>
-      <c r="AI120" s="164"/>
-      <c r="AJ120" s="164"/>
-      <c r="AK120" s="164"/>
-      <c r="AL120" s="164"/>
-      <c r="AM120" s="164"/>
-      <c r="AN120" s="164"/>
+      <c r="AH120" s="166"/>
+      <c r="AI120" s="166"/>
+      <c r="AJ120" s="166"/>
+      <c r="AK120" s="166"/>
+      <c r="AL120" s="166"/>
+      <c r="AM120" s="166"/>
+      <c r="AN120" s="166"/>
       <c r="AO120" s="58"/>
       <c r="AP120" s="89" t="s">
         <v>124</v>
@@ -15825,7 +15825,7 @@
       <c r="AD131" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="AE131" s="173" t="s">
+      <c r="AE131" s="160" t="s">
         <v>300</v>
       </c>
       <c r="AF131" s="28"/>
@@ -15841,7 +15841,7 @@
       <c r="AJ131" s="26">
         <v>0</v>
       </c>
-      <c r="AK131" s="174" t="s">
+      <c r="AK131" s="161" t="s">
         <v>301</v>
       </c>
       <c r="AL131" s="26">
@@ -15854,7 +15854,7 @@
         <v>0</v>
       </c>
       <c r="AO131" s="54" t="s">
-        <v>110</v>
+        <v>205</v>
       </c>
       <c r="AP131" s="92" t="str">
         <f>VLOOKUP($AR131,Auswertung!$A$2:$B$17,2,FALSE)</f>
@@ -15888,11 +15888,11 @@
     </row>
     <row r="134" spans="1:44" ht="19.5" thickBot="1">
       <c r="A134" s="40"/>
-      <c r="B134" s="160" t="s">
+      <c r="B134" s="162" t="s">
         <v>87</v>
       </c>
-      <c r="C134" s="160"/>
-      <c r="D134" s="160"/>
+      <c r="C134" s="162"/>
+      <c r="D134" s="162"/>
       <c r="E134" s="42"/>
       <c r="F134" s="42"/>
       <c r="G134" s="42"/>
@@ -15927,16 +15927,16 @@
         <v>103</v>
       </c>
       <c r="T134" s="50"/>
-      <c r="U134" s="161" t="s">
+      <c r="U134" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="V134" s="162"/>
-      <c r="W134" s="162"/>
-      <c r="X134" s="162"/>
-      <c r="Y134" s="162"/>
-      <c r="Z134" s="162"/>
-      <c r="AA134" s="162"/>
-      <c r="AB134" s="162"/>
+      <c r="V134" s="164"/>
+      <c r="W134" s="164"/>
+      <c r="X134" s="164"/>
+      <c r="Y134" s="164"/>
+      <c r="Z134" s="164"/>
+      <c r="AA134" s="164"/>
+      <c r="AB134" s="164"/>
       <c r="AC134" s="55"/>
       <c r="AD134" s="88" t="s">
         <v>123</v>
@@ -15945,16 +15945,16 @@
         <v>122</v>
       </c>
       <c r="AF134" s="57"/>
-      <c r="AG134" s="163" t="s">
+      <c r="AG134" s="165" t="s">
         <v>109</v>
       </c>
-      <c r="AH134" s="164"/>
-      <c r="AI134" s="164"/>
-      <c r="AJ134" s="164"/>
-      <c r="AK134" s="164"/>
-      <c r="AL134" s="164"/>
-      <c r="AM134" s="164"/>
-      <c r="AN134" s="164"/>
+      <c r="AH134" s="166"/>
+      <c r="AI134" s="166"/>
+      <c r="AJ134" s="166"/>
+      <c r="AK134" s="166"/>
+      <c r="AL134" s="166"/>
+      <c r="AM134" s="166"/>
+      <c r="AN134" s="166"/>
       <c r="AO134" s="58"/>
       <c r="AP134" s="89" t="s">
         <v>124</v>
@@ -16232,11 +16232,11 @@
     </row>
     <row r="139" spans="1:44" ht="19.5" thickBot="1">
       <c r="A139" s="40"/>
-      <c r="B139" s="160" t="s">
+      <c r="B139" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="C139" s="160"/>
-      <c r="D139" s="160"/>
+      <c r="C139" s="162"/>
+      <c r="D139" s="162"/>
       <c r="E139" s="42"/>
       <c r="F139" s="42"/>
       <c r="G139" s="42"/>
@@ -16271,16 +16271,16 @@
         <v>103</v>
       </c>
       <c r="T139" s="50"/>
-      <c r="U139" s="161" t="s">
+      <c r="U139" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="V139" s="162"/>
-      <c r="W139" s="162"/>
-      <c r="X139" s="162"/>
-      <c r="Y139" s="162"/>
-      <c r="Z139" s="162"/>
-      <c r="AA139" s="162"/>
-      <c r="AB139" s="162"/>
+      <c r="V139" s="164"/>
+      <c r="W139" s="164"/>
+      <c r="X139" s="164"/>
+      <c r="Y139" s="164"/>
+      <c r="Z139" s="164"/>
+      <c r="AA139" s="164"/>
+      <c r="AB139" s="164"/>
       <c r="AC139" s="55"/>
       <c r="AD139" s="88" t="s">
         <v>123</v>
@@ -16289,16 +16289,16 @@
         <v>122</v>
       </c>
       <c r="AF139" s="57"/>
-      <c r="AG139" s="163" t="s">
+      <c r="AG139" s="165" t="s">
         <v>109</v>
       </c>
-      <c r="AH139" s="164"/>
-      <c r="AI139" s="164"/>
-      <c r="AJ139" s="164"/>
-      <c r="AK139" s="164"/>
-      <c r="AL139" s="164"/>
-      <c r="AM139" s="164"/>
-      <c r="AN139" s="164"/>
+      <c r="AH139" s="166"/>
+      <c r="AI139" s="166"/>
+      <c r="AJ139" s="166"/>
+      <c r="AK139" s="166"/>
+      <c r="AL139" s="166"/>
+      <c r="AM139" s="166"/>
+      <c r="AN139" s="166"/>
       <c r="AO139" s="58"/>
       <c r="AP139" s="89" t="s">
         <v>124</v>
@@ -16701,11 +16701,11 @@
     </row>
     <row r="145" spans="1:44" ht="19.5" thickBot="1">
       <c r="A145" s="40"/>
-      <c r="B145" s="160" t="s">
+      <c r="B145" s="162" t="s">
         <v>91</v>
       </c>
-      <c r="C145" s="160"/>
-      <c r="D145" s="160"/>
+      <c r="C145" s="162"/>
+      <c r="D145" s="162"/>
       <c r="E145" s="42"/>
       <c r="F145" s="42"/>
       <c r="G145" s="42"/>
@@ -16740,16 +16740,16 @@
         <v>103</v>
       </c>
       <c r="T145" s="50"/>
-      <c r="U145" s="161" t="s">
+      <c r="U145" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="V145" s="162"/>
-      <c r="W145" s="162"/>
-      <c r="X145" s="162"/>
-      <c r="Y145" s="162"/>
-      <c r="Z145" s="162"/>
-      <c r="AA145" s="162"/>
-      <c r="AB145" s="162"/>
+      <c r="V145" s="164"/>
+      <c r="W145" s="164"/>
+      <c r="X145" s="164"/>
+      <c r="Y145" s="164"/>
+      <c r="Z145" s="164"/>
+      <c r="AA145" s="164"/>
+      <c r="AB145" s="164"/>
       <c r="AC145" s="55"/>
       <c r="AD145" s="88" t="s">
         <v>123</v>
@@ -16758,16 +16758,16 @@
         <v>122</v>
       </c>
       <c r="AF145" s="57"/>
-      <c r="AG145" s="163" t="s">
+      <c r="AG145" s="165" t="s">
         <v>109</v>
       </c>
-      <c r="AH145" s="164"/>
-      <c r="AI145" s="164"/>
-      <c r="AJ145" s="164"/>
-      <c r="AK145" s="164"/>
-      <c r="AL145" s="164"/>
-      <c r="AM145" s="164"/>
-      <c r="AN145" s="164"/>
+      <c r="AH145" s="166"/>
+      <c r="AI145" s="166"/>
+      <c r="AJ145" s="166"/>
+      <c r="AK145" s="166"/>
+      <c r="AL145" s="166"/>
+      <c r="AM145" s="166"/>
+      <c r="AN145" s="166"/>
       <c r="AO145" s="58"/>
       <c r="AP145" s="89" t="s">
         <v>124</v>
@@ -17547,11 +17547,11 @@
     </row>
     <row r="154" spans="1:44" ht="19.5" thickBot="1">
       <c r="A154" s="40"/>
-      <c r="B154" s="160" t="s">
+      <c r="B154" s="162" t="s">
         <v>89</v>
       </c>
-      <c r="C154" s="160"/>
-      <c r="D154" s="160"/>
+      <c r="C154" s="162"/>
+      <c r="D154" s="162"/>
       <c r="E154" s="42"/>
       <c r="F154" s="42"/>
       <c r="G154" s="42"/>
@@ -17586,16 +17586,16 @@
         <v>103</v>
       </c>
       <c r="T154" s="50"/>
-      <c r="U154" s="161" t="s">
+      <c r="U154" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="V154" s="162"/>
-      <c r="W154" s="162"/>
-      <c r="X154" s="162"/>
-      <c r="Y154" s="162"/>
-      <c r="Z154" s="162"/>
-      <c r="AA154" s="162"/>
-      <c r="AB154" s="162"/>
+      <c r="V154" s="164"/>
+      <c r="W154" s="164"/>
+      <c r="X154" s="164"/>
+      <c r="Y154" s="164"/>
+      <c r="Z154" s="164"/>
+      <c r="AA154" s="164"/>
+      <c r="AB154" s="164"/>
       <c r="AC154" s="55"/>
       <c r="AD154" s="88" t="s">
         <v>123</v>
@@ -17604,16 +17604,16 @@
         <v>122</v>
       </c>
       <c r="AF154" s="57"/>
-      <c r="AG154" s="163" t="s">
+      <c r="AG154" s="165" t="s">
         <v>109</v>
       </c>
-      <c r="AH154" s="164"/>
-      <c r="AI154" s="164"/>
-      <c r="AJ154" s="164"/>
-      <c r="AK154" s="164"/>
-      <c r="AL154" s="164"/>
-      <c r="AM154" s="164"/>
-      <c r="AN154" s="164"/>
+      <c r="AH154" s="166"/>
+      <c r="AI154" s="166"/>
+      <c r="AJ154" s="166"/>
+      <c r="AK154" s="166"/>
+      <c r="AL154" s="166"/>
+      <c r="AM154" s="166"/>
+      <c r="AN154" s="166"/>
       <c r="AO154" s="58"/>
       <c r="AP154" s="89" t="s">
         <v>124</v>
@@ -18227,11 +18227,11 @@
     </row>
     <row r="162" spans="1:44" ht="19.5" thickBot="1">
       <c r="A162" s="40"/>
-      <c r="B162" s="160" t="s">
+      <c r="B162" s="162" t="s">
         <v>90</v>
       </c>
-      <c r="C162" s="160"/>
-      <c r="D162" s="160"/>
+      <c r="C162" s="162"/>
+      <c r="D162" s="162"/>
       <c r="E162" s="42"/>
       <c r="F162" s="42"/>
       <c r="G162" s="42"/>
@@ -18266,16 +18266,16 @@
         <v>103</v>
       </c>
       <c r="T162" s="50"/>
-      <c r="U162" s="161" t="s">
+      <c r="U162" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="V162" s="162"/>
-      <c r="W162" s="162"/>
-      <c r="X162" s="162"/>
-      <c r="Y162" s="162"/>
-      <c r="Z162" s="162"/>
-      <c r="AA162" s="162"/>
-      <c r="AB162" s="162"/>
+      <c r="V162" s="164"/>
+      <c r="W162" s="164"/>
+      <c r="X162" s="164"/>
+      <c r="Y162" s="164"/>
+      <c r="Z162" s="164"/>
+      <c r="AA162" s="164"/>
+      <c r="AB162" s="164"/>
       <c r="AC162" s="55"/>
       <c r="AD162" s="88" t="s">
         <v>123</v>
@@ -18284,16 +18284,16 @@
         <v>122</v>
       </c>
       <c r="AF162" s="57"/>
-      <c r="AG162" s="163" t="s">
+      <c r="AG162" s="165" t="s">
         <v>109</v>
       </c>
-      <c r="AH162" s="164"/>
-      <c r="AI162" s="164"/>
-      <c r="AJ162" s="164"/>
-      <c r="AK162" s="164"/>
-      <c r="AL162" s="164"/>
-      <c r="AM162" s="164"/>
-      <c r="AN162" s="164"/>
+      <c r="AH162" s="166"/>
+      <c r="AI162" s="166"/>
+      <c r="AJ162" s="166"/>
+      <c r="AK162" s="166"/>
+      <c r="AL162" s="166"/>
+      <c r="AM162" s="166"/>
+      <c r="AN162" s="166"/>
       <c r="AO162" s="58"/>
       <c r="AP162" s="89" t="s">
         <v>124</v>
@@ -18569,11 +18569,11 @@
     </row>
     <row r="167" spans="1:44" ht="19.5" thickBot="1">
       <c r="A167" s="40"/>
-      <c r="B167" s="160" t="s">
+      <c r="B167" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="C167" s="160"/>
-      <c r="D167" s="160"/>
+      <c r="C167" s="162"/>
+      <c r="D167" s="162"/>
       <c r="E167" s="42"/>
       <c r="F167" s="42"/>
       <c r="G167" s="42"/>
@@ -18608,16 +18608,16 @@
         <v>103</v>
       </c>
       <c r="T167" s="50"/>
-      <c r="U167" s="161" t="s">
+      <c r="U167" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="V167" s="162"/>
-      <c r="W167" s="162"/>
-      <c r="X167" s="162"/>
-      <c r="Y167" s="162"/>
-      <c r="Z167" s="162"/>
-      <c r="AA167" s="162"/>
-      <c r="AB167" s="162"/>
+      <c r="V167" s="164"/>
+      <c r="W167" s="164"/>
+      <c r="X167" s="164"/>
+      <c r="Y167" s="164"/>
+      <c r="Z167" s="164"/>
+      <c r="AA167" s="164"/>
+      <c r="AB167" s="164"/>
       <c r="AC167" s="55"/>
       <c r="AD167" s="88" t="s">
         <v>123</v>
@@ -18626,16 +18626,16 @@
         <v>122</v>
       </c>
       <c r="AF167" s="57"/>
-      <c r="AG167" s="163" t="s">
+      <c r="AG167" s="165" t="s">
         <v>109</v>
       </c>
-      <c r="AH167" s="164"/>
-      <c r="AI167" s="164"/>
-      <c r="AJ167" s="164"/>
-      <c r="AK167" s="164"/>
-      <c r="AL167" s="164"/>
-      <c r="AM167" s="164"/>
-      <c r="AN167" s="164"/>
+      <c r="AH167" s="166"/>
+      <c r="AI167" s="166"/>
+      <c r="AJ167" s="166"/>
+      <c r="AK167" s="166"/>
+      <c r="AL167" s="166"/>
+      <c r="AM167" s="166"/>
+      <c r="AN167" s="166"/>
       <c r="AO167" s="58"/>
       <c r="AP167" s="89" t="s">
         <v>124</v>
@@ -18911,11 +18911,11 @@
     </row>
     <row r="172" spans="1:44" ht="19.5" thickBot="1">
       <c r="A172" s="40"/>
-      <c r="B172" s="160" t="s">
+      <c r="B172" s="162" t="s">
         <v>88</v>
       </c>
-      <c r="C172" s="160"/>
-      <c r="D172" s="160"/>
+      <c r="C172" s="162"/>
+      <c r="D172" s="162"/>
       <c r="E172" s="42"/>
       <c r="F172" s="42"/>
       <c r="G172" s="42"/>
@@ -18950,16 +18950,16 @@
         <v>103</v>
       </c>
       <c r="T172" s="50"/>
-      <c r="U172" s="161" t="s">
+      <c r="U172" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="V172" s="162"/>
-      <c r="W172" s="162"/>
-      <c r="X172" s="162"/>
-      <c r="Y172" s="162"/>
-      <c r="Z172" s="162"/>
-      <c r="AA172" s="162"/>
-      <c r="AB172" s="162"/>
+      <c r="V172" s="164"/>
+      <c r="W172" s="164"/>
+      <c r="X172" s="164"/>
+      <c r="Y172" s="164"/>
+      <c r="Z172" s="164"/>
+      <c r="AA172" s="164"/>
+      <c r="AB172" s="164"/>
       <c r="AC172" s="55"/>
       <c r="AD172" s="88" t="s">
         <v>123</v>
@@ -18968,16 +18968,16 @@
         <v>122</v>
       </c>
       <c r="AF172" s="57"/>
-      <c r="AG172" s="163" t="s">
+      <c r="AG172" s="165" t="s">
         <v>109</v>
       </c>
-      <c r="AH172" s="164"/>
-      <c r="AI172" s="164"/>
-      <c r="AJ172" s="164"/>
-      <c r="AK172" s="164"/>
-      <c r="AL172" s="164"/>
-      <c r="AM172" s="164"/>
-      <c r="AN172" s="164"/>
+      <c r="AH172" s="166"/>
+      <c r="AI172" s="166"/>
+      <c r="AJ172" s="166"/>
+      <c r="AK172" s="166"/>
+      <c r="AL172" s="166"/>
+      <c r="AM172" s="166"/>
+      <c r="AN172" s="166"/>
       <c r="AO172" s="58"/>
       <c r="AP172" s="89" t="s">
         <v>124</v>
@@ -19233,11 +19233,11 @@
     </row>
     <row r="177" spans="1:44" ht="19.5" thickBot="1">
       <c r="A177" s="40"/>
-      <c r="B177" s="160" t="s">
+      <c r="B177" s="162" t="s">
         <v>93</v>
       </c>
-      <c r="C177" s="160"/>
-      <c r="D177" s="160"/>
+      <c r="C177" s="162"/>
+      <c r="D177" s="162"/>
       <c r="E177" s="42"/>
       <c r="F177" s="42"/>
       <c r="G177" s="42"/>
@@ -19272,16 +19272,16 @@
         <v>103</v>
       </c>
       <c r="T177" s="50"/>
-      <c r="U177" s="161" t="s">
+      <c r="U177" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="V177" s="162"/>
-      <c r="W177" s="162"/>
-      <c r="X177" s="162"/>
-      <c r="Y177" s="162"/>
-      <c r="Z177" s="162"/>
-      <c r="AA177" s="162"/>
-      <c r="AB177" s="162"/>
+      <c r="V177" s="164"/>
+      <c r="W177" s="164"/>
+      <c r="X177" s="164"/>
+      <c r="Y177" s="164"/>
+      <c r="Z177" s="164"/>
+      <c r="AA177" s="164"/>
+      <c r="AB177" s="164"/>
       <c r="AC177" s="55"/>
       <c r="AD177" s="88" t="s">
         <v>123</v>
@@ -19290,16 +19290,16 @@
         <v>122</v>
       </c>
       <c r="AF177" s="57"/>
-      <c r="AG177" s="163" t="s">
+      <c r="AG177" s="165" t="s">
         <v>109</v>
       </c>
-      <c r="AH177" s="164"/>
-      <c r="AI177" s="164"/>
-      <c r="AJ177" s="164"/>
-      <c r="AK177" s="164"/>
-      <c r="AL177" s="164"/>
-      <c r="AM177" s="164"/>
-      <c r="AN177" s="164"/>
+      <c r="AH177" s="166"/>
+      <c r="AI177" s="166"/>
+      <c r="AJ177" s="166"/>
+      <c r="AK177" s="166"/>
+      <c r="AL177" s="166"/>
+      <c r="AM177" s="166"/>
+      <c r="AN177" s="166"/>
       <c r="AO177" s="58"/>
       <c r="AP177" s="89" t="s">
         <v>124</v>
@@ -19573,11 +19573,11 @@
     </row>
     <row r="182" spans="1:44" ht="19.5" thickBot="1">
       <c r="A182" s="40"/>
-      <c r="B182" s="160" t="s">
+      <c r="B182" s="162" t="s">
         <v>33</v>
       </c>
-      <c r="C182" s="160"/>
-      <c r="D182" s="160"/>
+      <c r="C182" s="162"/>
+      <c r="D182" s="162"/>
       <c r="E182" s="42"/>
       <c r="F182" s="42"/>
       <c r="G182" s="42"/>
@@ -19612,16 +19612,16 @@
         <v>103</v>
       </c>
       <c r="T182" s="50"/>
-      <c r="U182" s="161" t="s">
+      <c r="U182" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="V182" s="162"/>
-      <c r="W182" s="162"/>
-      <c r="X182" s="162"/>
-      <c r="Y182" s="162"/>
-      <c r="Z182" s="162"/>
-      <c r="AA182" s="162"/>
-      <c r="AB182" s="162"/>
+      <c r="V182" s="164"/>
+      <c r="W182" s="164"/>
+      <c r="X182" s="164"/>
+      <c r="Y182" s="164"/>
+      <c r="Z182" s="164"/>
+      <c r="AA182" s="164"/>
+      <c r="AB182" s="164"/>
       <c r="AC182" s="55"/>
       <c r="AD182" s="88" t="s">
         <v>123</v>
@@ -19630,16 +19630,16 @@
         <v>122</v>
       </c>
       <c r="AF182" s="57"/>
-      <c r="AG182" s="163" t="s">
+      <c r="AG182" s="165" t="s">
         <v>109</v>
       </c>
-      <c r="AH182" s="164"/>
-      <c r="AI182" s="164"/>
-      <c r="AJ182" s="164"/>
-      <c r="AK182" s="164"/>
-      <c r="AL182" s="164"/>
-      <c r="AM182" s="164"/>
-      <c r="AN182" s="164"/>
+      <c r="AH182" s="166"/>
+      <c r="AI182" s="166"/>
+      <c r="AJ182" s="166"/>
+      <c r="AK182" s="166"/>
+      <c r="AL182" s="166"/>
+      <c r="AM182" s="166"/>
+      <c r="AN182" s="166"/>
       <c r="AO182" s="58"/>
       <c r="AP182" s="89" t="s">
         <v>124</v>
@@ -20029,10 +20029,10 @@
     </row>
     <row r="187" spans="1:44" ht="19.5" thickBot="1">
       <c r="A187" s="40"/>
-      <c r="B187" s="160" t="s">
+      <c r="B187" s="162" t="s">
         <v>191</v>
       </c>
-      <c r="C187" s="160"/>
+      <c r="C187" s="162"/>
       <c r="D187" s="41"/>
       <c r="E187" s="42"/>
       <c r="F187" s="42"/>
@@ -20068,16 +20068,16 @@
         <v>103</v>
       </c>
       <c r="T187" s="50"/>
-      <c r="U187" s="161" t="s">
+      <c r="U187" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="V187" s="162"/>
-      <c r="W187" s="162"/>
-      <c r="X187" s="162"/>
-      <c r="Y187" s="162"/>
-      <c r="Z187" s="162"/>
-      <c r="AA187" s="162"/>
-      <c r="AB187" s="162"/>
+      <c r="V187" s="164"/>
+      <c r="W187" s="164"/>
+      <c r="X187" s="164"/>
+      <c r="Y187" s="164"/>
+      <c r="Z187" s="164"/>
+      <c r="AA187" s="164"/>
+      <c r="AB187" s="164"/>
       <c r="AC187" s="55"/>
       <c r="AD187" s="88" t="s">
         <v>123</v>
@@ -20086,16 +20086,16 @@
         <v>122</v>
       </c>
       <c r="AF187" s="57"/>
-      <c r="AG187" s="163" t="s">
+      <c r="AG187" s="165" t="s">
         <v>109</v>
       </c>
-      <c r="AH187" s="164"/>
-      <c r="AI187" s="164"/>
-      <c r="AJ187" s="164"/>
-      <c r="AK187" s="164"/>
-      <c r="AL187" s="164"/>
-      <c r="AM187" s="164"/>
-      <c r="AN187" s="164"/>
+      <c r="AH187" s="166"/>
+      <c r="AI187" s="166"/>
+      <c r="AJ187" s="166"/>
+      <c r="AK187" s="166"/>
+      <c r="AL187" s="166"/>
+      <c r="AM187" s="166"/>
+      <c r="AN187" s="166"/>
       <c r="AO187" s="58"/>
       <c r="AP187" s="89" t="s">
         <v>124</v>
@@ -21032,10 +21032,10 @@
     </row>
     <row r="197" spans="1:44" ht="19.5" thickBot="1">
       <c r="A197" s="40"/>
-      <c r="B197" s="160" t="s">
+      <c r="B197" s="162" t="s">
         <v>246</v>
       </c>
-      <c r="C197" s="160"/>
+      <c r="C197" s="162"/>
       <c r="D197" s="41"/>
       <c r="E197" s="42"/>
       <c r="F197" s="42"/>
@@ -21071,16 +21071,16 @@
         <v>103</v>
       </c>
       <c r="T197" s="50"/>
-      <c r="U197" s="161" t="s">
+      <c r="U197" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="V197" s="162"/>
-      <c r="W197" s="162"/>
-      <c r="X197" s="162"/>
-      <c r="Y197" s="162"/>
-      <c r="Z197" s="162"/>
-      <c r="AA197" s="162"/>
-      <c r="AB197" s="162"/>
+      <c r="V197" s="164"/>
+      <c r="W197" s="164"/>
+      <c r="X197" s="164"/>
+      <c r="Y197" s="164"/>
+      <c r="Z197" s="164"/>
+      <c r="AA197" s="164"/>
+      <c r="AB197" s="164"/>
       <c r="AC197" s="55"/>
       <c r="AD197" s="88" t="s">
         <v>123</v>
@@ -21089,16 +21089,16 @@
         <v>122</v>
       </c>
       <c r="AF197" s="57"/>
-      <c r="AG197" s="163" t="s">
+      <c r="AG197" s="165" t="s">
         <v>109</v>
       </c>
-      <c r="AH197" s="164"/>
-      <c r="AI197" s="164"/>
-      <c r="AJ197" s="164"/>
-      <c r="AK197" s="164"/>
-      <c r="AL197" s="164"/>
-      <c r="AM197" s="164"/>
-      <c r="AN197" s="164"/>
+      <c r="AH197" s="166"/>
+      <c r="AI197" s="166"/>
+      <c r="AJ197" s="166"/>
+      <c r="AK197" s="166"/>
+      <c r="AL197" s="166"/>
+      <c r="AM197" s="166"/>
+      <c r="AN197" s="166"/>
       <c r="AO197" s="58"/>
       <c r="AP197" s="89" t="s">
         <v>124</v>
@@ -23092,55 +23092,6 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="U187:AB187"/>
-    <mergeCell ref="AG187:AN187"/>
-    <mergeCell ref="B182:D182"/>
-    <mergeCell ref="U182:AB182"/>
-    <mergeCell ref="AG182:AN182"/>
-    <mergeCell ref="B172:D172"/>
-    <mergeCell ref="U172:AB172"/>
-    <mergeCell ref="AG172:AN172"/>
-    <mergeCell ref="B177:D177"/>
-    <mergeCell ref="U177:AB177"/>
-    <mergeCell ref="AG177:AN177"/>
-    <mergeCell ref="B162:D162"/>
-    <mergeCell ref="U162:AB162"/>
-    <mergeCell ref="AG162:AN162"/>
-    <mergeCell ref="B167:D167"/>
-    <mergeCell ref="U167:AB167"/>
-    <mergeCell ref="AG167:AN167"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="U145:AB145"/>
-    <mergeCell ref="AG145:AN145"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="U154:AB154"/>
-    <mergeCell ref="AG154:AN154"/>
-    <mergeCell ref="B134:D134"/>
-    <mergeCell ref="U134:AB134"/>
-    <mergeCell ref="AG134:AN134"/>
-    <mergeCell ref="B139:D139"/>
-    <mergeCell ref="U139:AB139"/>
-    <mergeCell ref="AG139:AN139"/>
-    <mergeCell ref="AG90:AN90"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="U120:AB120"/>
-    <mergeCell ref="AG120:AN120"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="U104:AB104"/>
-    <mergeCell ref="AG104:AN104"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="U112:AB112"/>
-    <mergeCell ref="AG112:AN112"/>
-    <mergeCell ref="A1:AP1"/>
-    <mergeCell ref="U16:AB16"/>
-    <mergeCell ref="AG16:AN16"/>
-    <mergeCell ref="U22:AB22"/>
-    <mergeCell ref="AG22:AN22"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A2:C2"/>
     <mergeCell ref="B197:C197"/>
     <mergeCell ref="U197:AB197"/>
     <mergeCell ref="AG197:AN197"/>
@@ -23157,6 +23108,55 @@
     <mergeCell ref="B74:D74"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="U90:AB90"/>
+    <mergeCell ref="A1:AP1"/>
+    <mergeCell ref="U16:AB16"/>
+    <mergeCell ref="AG16:AN16"/>
+    <mergeCell ref="U22:AB22"/>
+    <mergeCell ref="AG22:AN22"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="AG90:AN90"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="U120:AB120"/>
+    <mergeCell ref="AG120:AN120"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="U104:AB104"/>
+    <mergeCell ref="AG104:AN104"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="U112:AB112"/>
+    <mergeCell ref="AG112:AN112"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="U134:AB134"/>
+    <mergeCell ref="AG134:AN134"/>
+    <mergeCell ref="B139:D139"/>
+    <mergeCell ref="U139:AB139"/>
+    <mergeCell ref="AG139:AN139"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="U145:AB145"/>
+    <mergeCell ref="AG145:AN145"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="U154:AB154"/>
+    <mergeCell ref="AG154:AN154"/>
+    <mergeCell ref="B162:D162"/>
+    <mergeCell ref="U162:AB162"/>
+    <mergeCell ref="AG162:AN162"/>
+    <mergeCell ref="B167:D167"/>
+    <mergeCell ref="U167:AB167"/>
+    <mergeCell ref="AG167:AN167"/>
+    <mergeCell ref="B172:D172"/>
+    <mergeCell ref="U172:AB172"/>
+    <mergeCell ref="AG172:AN172"/>
+    <mergeCell ref="B177:D177"/>
+    <mergeCell ref="U177:AB177"/>
+    <mergeCell ref="AG177:AN177"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="U187:AB187"/>
+    <mergeCell ref="AG187:AN187"/>
+    <mergeCell ref="B182:D182"/>
+    <mergeCell ref="U182:AB182"/>
+    <mergeCell ref="AG182:AN182"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
